--- a/lib/tasks/init/aportaciones.xlsx
+++ b/lib/tasks/init/aportaciones.xlsx
@@ -2,25 +2,25 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="aportaciones-al-debate-provisionales-para-vistalegre-ii-2017-01-31" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="aportaciones-al-debate-provisionales-para-vistalegre-ii-2017-02-01" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="651">
   <si>
     <t xml:space="preserve">titulo</t>
   </si>
@@ -31,6 +31,9 @@
     <t xml:space="preserve">tematica</t>
   </si>
   <si>
+    <t xml:space="preserve">pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">persona1</t>
   </si>
   <si>
@@ -94,6 +97,49 @@
     <t xml:space="preserve">ID</t>
   </si>
   <si>
+    <t xml:space="preserve">Los Servicios Sociales: el gran reto para el cambio en las Políticas Sociales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En este documento planteamos la necesidad de una LEY GENERAL DEL SISTEMA PÚBLICO DE SERVICIOS SOCIALES que aborde todos estos retos y construya un verdadero Sistema de Protección Social dentro de la Política Social. Un SistemaPúblico de Servicios Sociales generador de riqueza y capital social. Que cuide a las personas y a su comunidad. Que garantice derechos. Que tenga una estructura técnica fuerte que se mantenga en pie cuando soplen con fuerza los vientos de la racionalización económica. Un Sistema del que podamos sentirnos orgullosas y que pueda realmente acogernos si así lo necesitamos. Queremos que los servicios sociales dejen de ser, de una vez por todas, beneficencia pública, bazas partidistas y partidarias, espacio de coqueteo con la sociedad civil y tomadura de pelo para la ciudadanía. Queremos seriedad y prioridad en el abordaje de las necesidades sociales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Derechos humanos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/02/servicios-sociales.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carmen|Mesa Raya|634683264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tamara|Ruiz Pascual|634683264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t.r.pascual@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incorporar la Renta Básica Universal e Incondicional (RBUI) al proyecto político de Podemos: Sí se puede.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La implantación de una Renta Básica Universal e Incondicional supone hacer efectivo el derecho de toda persona, sin condicionante alguno, a un ingreso suficiente para cubrir sus necesidades materiales básicas, es decir, equivale a garantizar la efectividad del primero de los Derechos Humanos y el fundamento de todos ellos: el derecho a una existencia digna. 
+Los derechos sociales no pueden estar condicionados a la posición que ocupe cada persona en el mercado laboral. Las personas deben adquirir tales derechos por el mero hecho de existir. La satisfacción de las necesidades básicas debe estar garantizada como derecho de ciudadanía, sin estar condicionada a disponer o no de un trabajo remunerado ni al cumplimiento de ningún otro requisito que no sea el de residencia. Sin esta garantía de una existencia material digna, no puede hablarse de una ciudadanía libre.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Economía y fiscalidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/RB-programa-Podemos.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luis|Alonso Echevarria|636530766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iván|García Caso|619158458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">luis.alonso@federapes.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">Antítesis Tresaros. Por una reconstitución hacia el Segundo Carril</t>
   </si>
   <si>
@@ -101,6 +147,9 @@
   </si>
   <si>
     <t xml:space="preserve">Educación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/La-Antu00edtesis-Tresaros-Nota-concretautopu00eda.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">A. Guillermo|Díaz Gómez|695868184</t>
@@ -120,6 +169,9 @@
     <t xml:space="preserve">Cultura</t>
   </si>
   <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/Propuesta-PParticipativos.VA2.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Vanesa|Viloria Alvarez|667569854</t>
   </si>
   <si>
@@ -135,7 +187,7 @@
     <t xml:space="preserve">España sigue siendo el único país europeo sin una autoridad independiente para la regulación del sector audiovisual. La redefinición de la Comisión Nacional de los Mercados y la Competencia ofrece una oportunidad para solventar esta anomalía. El nuevo ente regulador debe tener una estructura federal, a la luz de las previsiones de la Constitución.</t>
   </si>
   <si>
-    <t xml:space="preserve">Derechos humanos</t>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/Por-un-Consejo-Audiovisual-Español.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Joan|Botella|609134341</t>
@@ -148,6 +200,9 @@
   </si>
   <si>
     <t xml:space="preserve">La actual situación del sistema mediático pone en grave peligro el derecho de la ciudadanía a recibir información plural. Garantizar el Derecho a la Información y a la Comunicación, como todo derecho fundamental, es responsabilidad de los poderes públicos, más allá del deber de no injerencia. El fomento de los nuevos medios independientes y la promoción de los medios del Tercer Sector son claves para garantizar esta pluralidad.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/Garantizar-la-pluralidad-informativa.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Dardo|Gómez|609134341</t>
@@ -164,6 +219,9 @@
     <t xml:space="preserve">Otros</t>
   </si>
   <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/PROCESO-CONSTITUYENTE-PETICION-CIUDADANA.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">ARGIRO ARTENIO|GIRALDO QUINTERO|650203660</t>
   </si>
   <si>
@@ -181,6 +239,9 @@
     <t xml:space="preserve">Emigración e inmigración</t>
   </si>
   <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/Contribución-al-debate-sobre-personas-migrantes.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dina|Bousselham|677670343</t>
   </si>
   <si>
@@ -238,6 +299,9 @@
     <t xml:space="preserve">En el  siglo xxi  es necesario repensar los  criterios  de acceso a la  ciudadanía toda  vez  que  el  trabajo  no  se  garantiza  y  tener  un  trabajo  no  siempre  garantiza ingresos  estables  y suficientes. Plantear  hace  quince  años  un ingreso  garantizado  universal,  individual  e incondicional  a  toda  la  población  por  el  mero  hecho  de  existir  era  mucho más  sorprendente  que  hacerlo  hoy,  y  dentro  de  un  tiempo  lo  será  todavía menos.  Hemos  podido  observar  estos  últimos  años  se  ha  avanzado  mucho  a  este  respecto,  ya  que  bajo  distintas  modalidades  la  RBU  ha  entrado de  lleno  en  el  debate  público  de  distintos  países.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/Recuperarlailusion_doc_RBU.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jorge|Moruno|686592027</t>
   </si>
   <si>
@@ -250,6 +314,9 @@
     <t xml:space="preserve">La agenda mediática invita a  determinar los retos  en  el sentido  de las principales instituciones parlamentarias, Cortes  Generales  o  de los Parlamentos autonómicos.  Sin  embargo,  las posibilidades  de  cambio se fraguan  desde la  base,  desde donde  se desarrolla  la vida de  la gente y desde  las cuales, hasta la llegada  de la Ley Montoro,  se permitía  el  ejercicio político lejos  de las  cortapisas  supranacionales:  el  municipalismo.  Pese a  la  situación  actual de los ayuntamientos,  atados  de pies  y manos por la mencionada Ley  de Racionalización  y Sostenibilidad  de la Administración Local,  no podemos cejar  en la reivindicación  de la importancia  del municipalismo,  poniendo  en valor la necesaria labor  de  cercanía,  de primera atención  y los  márgenes de actuación  que aún se mantienen.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/Recuperarlailusion_doc_municipalismo_anticorrupcion-1.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rita|Maestre|699364692</t>
   </si>
   <si>
@@ -265,6 +332,9 @@
     <t xml:space="preserve">Cambio del modelo productivo</t>
   </si>
   <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/Recuperarlailusion_doc_modelo_productivo.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alberto|Montero|615052015</t>
   </si>
   <si>
@@ -274,6 +344,9 @@
     <t xml:space="preserve">En  España  la crisis económica,  social y  política que estalló en  2008 desembocó  también  en  una  crisis  de  modelo  territorial  y  proyecto  nacional. Al agotamiento del  estado  de las autonomías  y  del proyecto uninacional habría  que sumarle también la lenta pero  constante  venta  de soberanía por parte  del bloque dominante que condensó en  la  reforma del  artículo  135 de  la  Constitución, poniendo  el  objetivo  de  cumplimiento  del  déficit  por  encima  del  Estado  del Bienestar y  los derechos  sociales. Lo más importante  de los  consensos territoriales  y nacionales  que las  élites tradicionales  hicieron  estallar  es  que  pusieron  de  manifiesto  que  no  tenían forma de  repararlos,  dejando  a  los de  abajo como  los  únicos capaces de encarnar un nuevo  proyecto  de país,  que reconociese  de  una  vez la plurinacionalidad  y  se  hiciese  cargo  de  la  tarea de  democratización  del  Estado.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/Recuperarlailusion_doc_modelo_plurinacionalidad.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Àngela|Ballester|627258099</t>
   </si>
   <si>
@@ -287,6 +360,9 @@
   </si>
   <si>
     <t xml:space="preserve">Medio ambiente y soberanía alimentaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/Recuperarlailusion_doc_medio_ambiente.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">José|Errejón|659957461</t>
@@ -305,6 +381,9 @@
     <t xml:space="preserve">Política internacional</t>
   </si>
   <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/Internacionalismo.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">rafael|gonzalez|roldan</t>
   </si>
   <si>
@@ -320,6 +399,9 @@
     <t xml:space="preserve">Igualdad</t>
   </si>
   <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/VISIBILIZACION2.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Maria Jose|M. Azaña|639243920</t>
   </si>
   <si>
@@ -336,6 +418,9 @@
   </si>
   <si>
     <t xml:space="preserve">VISIBILIZACIÓN DE LAS MUJERES A PARTIR DE 50 AÑOS EN PODEMOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/VISIBILIZACION.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">M JOSE|M. AZAÑA|639243920</t>
@@ -358,6 +443,9 @@
   <si>
     <t xml:space="preserve">Pongamos a Podemos en el centro del tablero como la herramienta fundamental de edificación social, seamos el nexo de unión de todos los movimientos.
 Para ello, basaremos la construcción del primer partido del s.xxi en las nuevas tecnologías y lo haremos útil desde YA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/LA-NUEVA-WEB-DE-PODEMOS-UNA-VERDADERA-RED-SOCIAL.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">José|Orihuela Cánovas|646487611</t>
@@ -382,6 +470,9 @@
 . Acceso gratuito a profesionales de terapia familiar, conflictos adolescentes...</t>
   </si>
   <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/Propuesta-Ester-Ortiz.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ester|Ortiz Gironés|625037325</t>
   </si>
   <si>
@@ -394,6 +485,9 @@
     <t xml:space="preserve">Proponemos la Libre Presentación de Candidatos en las asambleas municipales representando a Podemos en cada municipio, es decir, lo que proponemos con esta medida es que se pueda presentar como candidato a cada municipio una sola persona, en principio, en representación del nombre de Podemos, además seria conveniente que cada persona que tomara la iniciativa de presentarse fuera vecino censado en el municipio para conseguir en más medida el reconocimiento y el voto de más personas, queremos un podemos en cada municipio reducido y con personas vecinas y conocidas en cada municipio para obtener mayores votos además pensamos que se debe de terminar con los partidos municipales que usan el nombre de Podemos para presentarse en el municipio y una vez conseguida representación se desvinculan de Podemos cambiándose el nombre de Podemos por otro parecido para finalmente apoyar a los partidos de derecha dentro de los consistorios, debemos acabar con esto.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/documento-Organizativo-3.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Enrique|Gauchia Trujillo|600770110</t>
   </si>
   <si>
@@ -406,12 +500,18 @@
     <t xml:space="preserve">Seguimos con la idea y la elaboración de un programa dónde resulte posible contar con el Voto de todas las Personas, estén afiliadas o no al partido, es decir que cualquier persona sea miembro o no de podemos pueda realizar igualmente su votación en las distintas asambleas y propuestas, eso sí con una puntuación de votación justa, es decir, los afiliados de podemos continuarán votando como siempre y su votación será igual es en los casos de personas no afiliadas a podemos donde podrán ejercer igualmente su votación al partido pero su puntuación en cuanto a la votación será menor, una vez efectuado el recuento y los resultados de la votación se le sumará posteriormente a esos resultados la suma de todas las personas no afiliadas al partido que hayan querido ejercer su derecho a voto, de esta manera se elaborará una última lista de Resultados Definitivos sumando en está última lista los votos resultantes de los no afiliados a Podemos. De esta manera contaremos con más suma de Votos.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/documento-Político-1.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reconocimiento y defensa del Derecho a la Información y la Comunicación de la Ciudadanía</t>
   </si>
   <si>
     <t xml:space="preserve">El Derecho a la Información y la Comunicación pertenece a la ciudadanía, no a los medios de comunicación ni a la profesión periodística, que son meros intermediarios del mismo y cuya función social es precisamente servir a ese derecho. Sin embargo, ese derecho está hoy gravemente amenazado desde diversos ángulos: recortes de la libertad de prensa en nombre de la "seguridad nacional" y el contraterrorismo, 'leyes mordaza' --Ley de Seguridad Ciudadana, reforma del Código Penal, modificación de la Ley de Enjuiciamiento Criminal-- para acallar las protestas sociales, falta de transparencia y multiplicación de secretismos –político y militar, financiero y comercial--, concentración mediática que reduce el pluralismo informativo, control gubernamental de los medios públicos, trabas legales y financieras a los medios comunitarios del sector social, etc. Podemos necesita dar mucha más relevancia a esta cuestión, junto a la sociedad civil, destinando recursos y grupos de trabajo específicos.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/Aportaciones-al-Debate-Manu-Mediavilla.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Manuel|Mediavilla|686606654</t>
   </si>
   <si>
@@ -422,15 +522,18 @@
   </si>
   <si>
     <t xml:space="preserve">Las infraestructuras conforman la parte del león del presupuesto de inversiones del Estado. Estas inversiones inciden en a la cotidianeidad de nuestro pueblo:
--Modifican la fisionomía de nuestras urbes y condicionan su planificación.
--Facilitan la movilidad de personas y mercancías, sesgando tendencias demográficas, a veces con consecuencias irreparables.
---Suponen un poderoso estímulo para la creación de empleo en aquellos sectores en los que se focalizan.
--Configuran performativamente las dinámicas de comunicación entre las distintas zonas de nuestro país, privilegiando la comunicación por corredores o por contra la radial,
+-	Modifican la fisionomía de nuestras urbes y condicionan su planificación.
+-	Facilitan la movilidad de personas y mercancías, sesgando tendencias demográficas, a veces con consecuencias irreparables.
+--	Suponen un poderoso estímulo para la creación de empleo en aquellos sectores en los que se focalizan.
+-	Configuran performativamente las dinámicas de comunicación entre las distintas zonas de nuestro país, privilegiando la comunicación por corredores o por contra la radial,
 Durante la última década las inversiones en infraestructuras en España han sido desmesuradas, y han estado ausentes de planificación estratégica. 
 Los aeropuertos sin aviones, las autopistas rescatadas,los sobrecostes en alta velocidad, son un ejemplo nítido de administración desleal, cuando no negligencia. PODEMOS  va a cambiar este escenario.</t>
   </si>
   <si>
     <t xml:space="preserve">Transporte y movilidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/Propuesta_de_RESOLUCIÓN_EN_VISTALEGRE2-v02-3.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">IGNACIO|MARINAS|651195608</t>
@@ -460,6 +563,9 @@
 3º Podemos, trabajará por la Coordinación con todas aquellas organizaciones y movimientos sociales, sindicales etc. que apoyan dicha propuesta.  El Círculo Estatal Podemos Renta Básica servirá de enlace con los compañeros y compañeras de dichas organizaciones que apoyan y promueven la RBU, para ello se mantendrán reuniones, charlas informativas y cualesquiera mecanismos que ayuden a la difusión de la iniciativa, asi como sus demandas</t>
   </si>
   <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/Resolución-aprobada-en-Asamblea-para-presentar-en-VA-II1.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Carmen|Climent Viguer|005521981516933</t>
   </si>
   <si>
@@ -472,6 +578,9 @@
     <t xml:space="preserve">transaccionada : cooperatizar  y participación intercirculos de  distintas  comuniddes  autónomas  con intereses  comunes</t>
   </si>
   <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/Podemos-PROPUESTA.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">carlos|Taboada|661239640</t>
   </si>
   <si>
@@ -490,6 +599,9 @@
     <t xml:space="preserve">Dependencia y economía de los cuidados</t>
   </si>
   <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/Aportación-VA2-inclusión-de-personas-mayores.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Inés|Valle Fernández|655900464</t>
   </si>
   <si>
@@ -530,6 +642,9 @@
   </si>
   <si>
     <t xml:space="preserve">Justicia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/Sin-mujeres-no-hay-justicia.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">CLARA|TOMAS AZORIN|635277600</t>
@@ -546,6 +661,9 @@
 Que PODEMOS como instrumento político al servicio de los ciudadanos, se convierta en el dinamizador de una millonaria seria de DERECHOS DE PETICIONES CIUDADANAS que escritas, legalmente registradas y tramitadas, se dirigidas al PRESIDENTE DE GOBIENRO Y AL CONGRESO DE LOS DIPUTADOS para que con fundamento en las disposiciones legales aquí expuesta y en los hechos descritos, entre muchos otros, el PRESDIENTE DE GOBIERNO y/o el Congreso de los Diputados mediante Decreto o ley, AUTORICEN QUE EN LAS PROXIMAS ELECCIONES GNERALES se CONSULTE a la ciudadanía y con un SI o un NO, si está de acuerdo con un nuevo pacto de convivencia constitucional y con la convocatoria a una Asamblea Estatal Constituyente y ciudadana para que democrática y plural, debate, pacte y aprueba ese nuevo pacto de convivencia y lo plasme en una nueva CONSTITUCION DE PACTO.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/CONSULTA-CIUDADANA.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ytber Jesús|Miranda Anyaco|615864662</t>
   </si>
   <si>
@@ -559,6 +677,9 @@
   </si>
   <si>
     <t xml:space="preserve">Defensa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/GASTO-MILITAR-VS-GASTO-SOCIAL.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Pedro|Dominguez|665311501</t>
@@ -577,6 +698,9 @@
     <t xml:space="preserve">Lucha contra la corrupción</t>
   </si>
   <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/Cargos_elegidos-revocables.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fernando|García guisado|617604418</t>
   </si>
   <si>
@@ -592,6 +716,9 @@
     <t xml:space="preserve">LA EDUCACIÓN ES LA CLAVE PRINCIPAL DE TODOS LOS TEMAS, PROBLEMÁTICAS  Y CUESTIONES QUE NOS PREOCUPAN...   pues de la educación  depende absolutamente  el tipo de personas, seres humanos y sociedades  que construímos...   y porque  de la educación dependerá también el tipo de sistemas, métodos, grupos, estructuras sociales  y sociedades que articulemos en el  futuro... nos parece  absolutamente imprescindible empezar a construir  UN SISTEMA EDUCATIVO QUE NO SE BASE  ÚNICA Y EXCLUSIVAMENTE EN  DESARROLLAR  “LA INTELIGENCIA INTELECTUAL”  Y   “LA INTELIGENCIA LÓGICO-MATEMATICA”.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/educación-para-el-Siglo-XXI-para-construir-el-ser-humano-3589.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Miguel Angel|Vicente|690608520</t>
   </si>
   <si>
@@ -601,6 +728,9 @@
     <t xml:space="preserve">TODO EL PODER PARA EL CIRCULO.-Es evidente la preocupación de tod@s respecto a papel cada vez más secundario, subsidiario y a veces marginal de los Círculos, en la participación de los grandes ejes que importan al Partido como a la ciudadanía. La dinámica dada desde antes de Vistalegra I y la posterior, con las dos contiendas electorales de orden Estatal, y los procesos de renovación de algunas direcciones locales, han dejado en evidencia que los círculos  han quedado reducidos, valga la expresión, a un ejército de serviles para organizar las pegadas de carteles y asumir los encargos como delegados electorales en los escrutinios. Los Círculos han llegado a tal extremo de abandono que ya ni siquiera sirvan para avalar los candidatos, pues en su mayoría ya viene preavalador en listas preconstituidas por las distintas familias que desde la fundación del Partido y qué con nombres propios, se están expresan como facciones, por fuera de los círculos.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/TODO-EL-PODER-AL-CIRCULO-UNO.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Iñaqui|ARRASTIO ORTIZ|625200112 6</t>
   </si>
   <si>
@@ -631,6 +761,9 @@
     <t xml:space="preserve">Todo proceso político de orientación progresista se enfrenta siempre a un obstáculo de extrema gravedad: la orientación egoísta, insolidaria e incluso violenta y anti-igualitaria, de algunos individuos. El neoliberalismo imperante potencia todavía más esta orientación, que conviene a sus intereses. La educación puede, si no eliminar totalmente estas tendencias, sí reducirlas grandemente y potenciar las contrarias. Para ello, nuevos criterios educacionales, que no promuevan ante todo la competitividad y un frío tecnicismo aislacionista, sino el autoconocimiento, la sensibilidad y la empatía, deben ser promovidos desde Podemos.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/EDUCAR-EN-LA-COMPASIÓN-Y-LA-EMPATÍA.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">José Antonio|Vázquez|617481988</t>
   </si>
   <si>
@@ -643,6 +776,9 @@
     <t xml:space="preserve">El sufrimiento es sufrimiento cualquiera que sea el ser que lo experimente, y tender a reducirlo al mínimo tanto en los seres humanos como en los animales -que lo sienten igualmente- es un auténtico deber para  toda fuerza política que esté orientada a promover el mayor bien posible y a minimizar, asimismo todo lo posible, el mal.  Y a esto, sin duda, aspira Podemos…</t>
   </si>
   <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/REDUCCIÓN-DEL-SUFRIMIENTO.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jose Luis|San Miguel|617854176</t>
   </si>
   <si>
@@ -652,6 +788,9 @@
     <t xml:space="preserve">Que se contemple la creación del Área de MIGRACION/ MOVILIDAD HUMANA en el funcionamiento (documento organizativo) del Consejo Ciudadano Estatal y por consiguiente en los consejos ciudadanos autonómicos y municipales, considerando lo descrito, como justificación doctrinaria y jurídica, por la que exponemos y sugerimos la participación de los nuevos vecinos en la construcción de la ciudadanía inclusiva</t>
   </si>
   <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/Consejo-Ciudadano-Migrantes1.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">joan|cebolla moll|644296455</t>
   </si>
   <si>
@@ -664,12 +803,18 @@
     <t xml:space="preserve">Las libertad religiosa no debe enfocarse solo negativamente, subrayando únicamente los necesarios límites a los abusos vinculados a la confesión religiosa dominante, sino como un derecho humano importante y positivo, que cobra mayor amplitud en la libertad de conciencia, que trasciende lo religioso (y su rechazo) y que cabe entender como el derecho de todo ser humano a tener y desarrollar alguna forma de espiritualidad, religiosa o no. La plena laicidad, neutral en principio hacia lo religioso y espiritual, es el marco natural y óptimo del ejercicio de estas libertades.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/Libertad-de-conciencia-pluralismo-y-laicidad.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">PAZ Y MEMORIA INCLUSIVA PARA UNA CONVIVENCIA DEMOCRÁTICA</t>
   </si>
   <si>
     <t xml:space="preserve">Un grupo plural de personas de Euskadi y Navarra promovemos esta aportación al debate que contiene una serie de criterios y posicionamientos, fundamentados en la más firme defensa de los derechos humanos y en el rechazo político y ético de toda forma de violencia, para guiar a Podemos en la construcción de la paz en Euskadi y Navarra, así como para asentar una convivencia democrática basada en una memoria inclusiva de todos los sufrimientos y respetuosa con la dignidad de las víctimas.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/Paz-y-memoria-inclusiva-para-una-convivencia-democrática.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sergio|Campo Lladó|658725510</t>
   </si>
   <si>
@@ -700,12 +845,18 @@
     <t xml:space="preserve">Petición de reforma constitucional para que la participación de los inmigrantes en procesos electorales se de por residencia y no por reciprocidad</t>
   </si>
   <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/Derecho-al-voto1.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">DERECHOS Y DIGNIDAD. JUSTICIA EN LAS FUERZAS ARMADAS DEL ESTADO ESPAÑOL.</t>
   </si>
   <si>
     <t xml:space="preserve">La cuestión de las Fuerzas Armadas tiene una importancia estratégica enorme, y especialmente para quienes como nosotros, persigan la emancipación de las clases populares. En el presente documento trato de persuadir sobre la necesidad de que incluyamos entre nuestras demandas de dignidad, las demandas de quienes conforman las bases de nuestros ejércitos, para generar afinidades e identificar intereses comunes que nos permitan eliminar la hostilidad propia de un ejército estamental, y abrir la perspectiva de un ejército más propio de una democracia real. Para ello, establezco superficialmente una serie de aspectos, principalmente jurídicos y sociales, sobre los que deberíamos detenernos y profundizar.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/APORTACIONES-AL-DEBATE-VA2.-Derechos-y-dignidad-de-todos-los-ciudadanos.-Fuerzas-armadas-y-justicia.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">JULIÁN|DE LA CASA SÁNCHEZ|665243146</t>
   </si>
   <si>
@@ -718,6 +869,9 @@
     <t xml:space="preserve">El equipo que presenta este aporte son miembros del Circulo Sectorial de Migraciones de la Comunidad de Madrid, que vienen trabajando documentos para fortalecer la participación migrante de nuestro partido, a tal fin proponen la creación de la SECRETARIA DE MIGRACIONES ESTATAL, para mantener una estructura orgánica de trabajo sobre la migración.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/APORTE-AL-DEBATE-DE-VISTA-ALEGRE-II.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">ARTURO|AVILA PATIÑO|676485261</t>
   </si>
   <si>
@@ -748,6 +902,9 @@
     <t xml:space="preserve">Medio rural</t>
   </si>
   <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/4_5783103670845440205.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ariel|Jerez|660724164</t>
   </si>
   <si>
@@ -794,6 +951,9 @@
   </si>
   <si>
     <t xml:space="preserve">A continuación se presentan algunas consideraciones relevantes a tener en cuenta en el desarrollo de la estructura de un Podemos Exterior integral, buscando avanzar en la garantía de la participación política en Podemos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/APORTACIONES-VA2_PodemosMéxico.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Salvador|Gomez Crespo|005215528421614</t>
@@ -852,6 +1012,9 @@
 Aportaciones:</t>
   </si>
   <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/voto-espaciado-final.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">bOULAHFA  MIMOUN|ABDEL-LAH|601090374</t>
   </si>
   <si>
@@ -864,6 +1027,9 @@
     <t xml:space="preserve">Aportación sobre la transversalidad</t>
   </si>
   <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/TRANSVERSALIDAD.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Susana|López Ramos|684054219</t>
   </si>
   <si>
@@ -885,6 +1051,9 @@
     <t xml:space="preserve">aportación sobre el lugar de podemos en el tablero político</t>
   </si>
   <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/POR-LA-CLASE-TRABAJADORA-Y-EL-SOCIALISMO.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Juan|García López|684054219</t>
   </si>
   <si>
@@ -897,7 +1066,7 @@
     <t xml:space="preserve">Estas son las medidas urgentes que PODEMOS, en tanto es un proyecto de gobierno y de empoderamiento ciudadano y de cambio, debería comprometerse a impulsar en las instituciones y a reivindicarlas junto a la gente y movimientos sociales en las calles</t>
   </si>
   <si>
-    <t xml:space="preserve">Economía y fiscalidad</t>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/Finanzas-Resolución-VAII-final.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Daniel|Vila Garda (Círculo 3E)|619975606</t>
@@ -966,6 +1135,9 @@
     <t xml:space="preserve">Aportación sobre el callejón sin salida del capitalismo y la defensa de una alternativa socialista como única socialista</t>
   </si>
   <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/POLÍTICA_INTERNACIONAL.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">SUSANA|LÓPEZ RAMOS|684054219</t>
   </si>
   <si>
@@ -984,6 +1156,9 @@
     <t xml:space="preserve">Aportación sobre el papel de los municipios del cambio.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/PODEMOS-EN-LA-CALLE.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">LA TRANSICIÓN:UN FRAUDE SOCIAL Y DEMOCRÁTICO</t>
   </si>
   <si>
@@ -993,6 +1168,9 @@
     <t xml:space="preserve">Memoria histórica</t>
   </si>
   <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/MEMORIA-HISTÓRICA-LA-TRANSICIÓN.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">MIGUEL|JIMÉNEZ ABOLLADO|62261670</t>
   </si>
   <si>
@@ -1002,6 +1180,9 @@
     <t xml:space="preserve">Aportación sobre el funcionamiento de los círculos y la necesidad de contar con herramientas políticas, tales como la formación teórica, y herramientas organizativas, como el hecho de contra con registro de inscritos, financiación desde la organización estatal, poner en valor que los inscritos aporten cuotas en la medida de sus posibilidades.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/CÍRCULOS_DEMOCRÁTICOS.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Carmen|Máximo Torres|617 081 352</t>
   </si>
   <si>
@@ -1009,6 +1190,9 @@
   </si>
   <si>
     <t xml:space="preserve">Los compañeros y compañeras de los documentos “Exterior en Común” y “España Exterior plurinacional” hemos llegado a un acuerdo para transaccionar nuestras propuestas organizativas. El resultado de este trabajo colectivo es la versión final del documento que os adjuntamos, al que hemos dado el nombre de Tejiendo Exterior.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/Tejiendo-Exterior-transacción-EEC-y-EEP.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Marcos|Galante|</t>
@@ -1069,6 +1253,9 @@
 Lo urgente es ya, también, lo importante. Por un Podemos que apueste por la Sostenibilidad.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/VA2-Aportacion-al-Debate-Por-la-Sostenibilidad.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alberto|Rosado del Nogal|605312611</t>
   </si>
   <si>
@@ -1129,6 +1316,9 @@
     <t xml:space="preserve">Planteamos cambiar la visión que vienen teniendo los gobiernos sobre las políticas hacia la ciudadanía en el exterior centrada en las corrientes migratorias, en políticas asistencialistas y clientelares e ignorando los derechos. Proponemos ver a los españoles en el exterior como díaspora heterogénea con capas de migraciones, descendencias y retornos. Y considerarlos como un recurso de la futura política exterior de gobierno. Con el desarrollo de un entramado de redes interconectadas a redes en España, de PYMES, emprendimientos culturales y educativos. Y desde ya a Podemos como movimiento social para afrontar problemas. Ya tenemos recursos: Círculos, CRE, centros de la colectividad, cooperación internacional aplicada a proyectos que generen organización y solidaridad, sedes estilo Moradas. Y en lo interno una inserción que prefigure la circunscripción exterior.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/NuevaVisiondelaEspanaExteriorPlurinacional.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Soledad|Palomino Roscelli|54-911-5840-7024</t>
   </si>
   <si>
@@ -1168,6 +1358,9 @@
     <t xml:space="preserve">Las pensiones han sufrido agresiones constantes: pierden poder adquisitivo, se vacia la hucha de las pensiones, se apuesta por las pensiones privadas y un largo etc. PODEMOS debe apostar por la edad de jubilación a los 65 años, por cambiar la política hacia las pensiones y garantizar su poder adquisitivo</t>
   </si>
   <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/Las-pensiones.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fernando|García Guisado|617604418</t>
   </si>
   <si>
@@ -1184,6 +1377,9 @@
   </si>
   <si>
     <t xml:space="preserve">Seguridad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/No_a_la_OTAN.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Exterior 9000. Democracia, Pluralidad y Poder Popular desde el Exterior</t>
@@ -1193,6 +1389,9 @@
 Los ejes fundamentales son articulación de la militancia, apertura a la sociedad civil, democratización y control de la toma de decisiones y dar garantías a todas las personas inscritas en pie de igualdad.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/Exterior_9000_v4.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jesús|Martínez García|+4917629532713</t>
   </si>
   <si>
@@ -1239,6 +1438,9 @@
 El modelo de desarrollo capitalista, desde las capacidades tecnológicas disponibles y bajo el imperio del libre mercado que impone la visión neoliberal está acelerando el agotamiento de recursos, así como el desborde y quiebra de los ciclos de la vida, poniendo en cuestión no sólo la sostenibilidad del modelo de progreso y de vida que hemos construido, sino los principios democráticos en el siglo XXI.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/UNA-AGENDA-VERDE-QUE-DÉ-COHERENCIA-AL-NUEVO-MODELO-PRODUCTIVO-DE-CONSUMO-Y-DE-VIDA-QUE-NECESITAMOS-1.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Carlos|Chávez Muñoz|650212181</t>
   </si>
   <si>
@@ -1301,6 +1503,9 @@
   <si>
     <t xml:space="preserve">La emigración española ha constituido un fenómeno político, social y económico que ha caracterizado nuestra historia. Sin embargo y muy al contrario a lo que sucede en otros países de nuestro entorno como Portugal, Irlanda o Italia, que reconocer a su comunidad en el extranjero como una fuente de riqueza cultural, económica y social, la emigración y la comunidad residente en el extranjero han constituido un sujeto político al que solo se ha recurrido por interés y durante periodos electorales.
 Podemos debe erigirse como el partido de los emigrantes y de los españoles y españolas que residen en el extranjero, exigiendo que se cumplan las leyes y regulaciones que aseguran sus derechos, especialmente los artículos de 42 y 68.5 de la Constitución y el Estatuto de la Ciudadanía Española en el Exterior.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/La-emigración-española-como-un-sujeto-político-a-recordar.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Raquel|Romero Alonso|+4917623888418</t>
@@ -1317,6 +1522,9 @@
 En 2014, el programa electoral con el que comenzamos nuestra andadura dedicaba  gran parte de su texto a desarrollar la idea de la igualdad y para encontrarla, tenemos que afianzar un sistema público que garantice el acceso igualitario  a los recursos.  Aspiramos a un modelo social que fomente la igualdad de posición, no de oportunidad.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/propuestas-para-el-debate-vistalegre-II-...-podemos-garantizar-los-derechos-sociales1.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Leticia|García  Panal|620515852</t>
   </si>
   <si>
@@ -1335,6 +1543,9 @@
     <t xml:space="preserve">La situación de cientos de miles de refugiados que huyen de guerras, hambrunas, persecución por causas políticas, religiosas o étnicas, plantea una  situación humanitaria dramática que se agrava ante la manifiesta hipocresía, desidia e incapacidad de los gobiernos europeos. Esto genera -además - una situación socio-política  que requiere posiciones y acciones urgentes de PODEMOS.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/Aportaciones-al-Debate-Emigración-Inmigración-REFUGIADOS.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Carlos|Iaquinandi Castro|648117251</t>
   </si>
   <si>
@@ -1345,6 +1556,9 @@
   </si>
   <si>
     <t xml:space="preserve">Los mayores no tenemos suficiente consideración ni en los programas ni en las acciones de Podemos. Somos más de 9 millones de personas que significamos un 20% del electorado. Este segmento social aporta mayoritariamente su voto al PP o al PSOE en segunda alternativa. Además del reconocimiento social a lo que representan como puntales de familias, es urgente sumarlos a PODEMOS. ¿Cómo ?:  denunciando la situación, organizando a los afectados, promoviendo acciones y generando  soluciones.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/Aportaciones-al-Debate-OTROS-Jubilaciones-y-dependencia.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Modelo alternativo de transparencia en la AAPP</t>
@@ -1354,6 +1568,9 @@
 Funciones del Tribunal de Cuentas</t>
   </si>
   <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/Propuesta-VA2-Ley-Transparencia.docx_1485269722076.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rafael|Pellicer|680658961</t>
   </si>
   <si>
@@ -1370,6 +1587,9 @@
   </si>
   <si>
     <t xml:space="preserve">La transparencia, la independencia y la participación son los principios básicos de funcionamiento que sustentan la actuación y gestión del Área de Finanzas y Transparencia desde su nacimiento y estamos convencidos de que continuar esta senda significa seguir construyendo un camino de mejora continua. Desde el año 2014 demostramos que es posible otra forma de financiación de partidos: renunciando a financiación bancaria, evitando la dependencia de grandes donantes, y desarrollando sistemas innovadores y participativos.  La gestión  a través de herramientas pioneras en financiación y transparencia es hoy una realidad, y nos ayudan a ser más eficientes y a ahorrar tanto a nuestra organización como a las arcas públicas y situarnos como referencia internacional. A continuación, reflejamos las principales aplicaciones prácticas desarrolladas y las que hemos previsto para el futuro con el ánimo de que sean tomados en consideración por las diferentes candidaturas en la II Asamblea Ciudadana.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/aval_finanzas-ilovepdf-compressed.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Área de Finanzas y Transparencia||</t>
@@ -1385,6 +1605,9 @@
 Es un hecho que muchos ciudadanos buscan en Podemos respuestas a estos requerimientos para proteger a los animales frente al maltrato. Por ello entendemos que nuestro Partido debe defender, de forma ordinaria, unas bases en relación con la protección animal. Nuestras propuestas proteccionistas no son ni drásticas ni radicales, todo en vías de conseguir avances rápidos y positivos, pues tenemos los precedentes de políticas de bienestar animal de los municipios con candidatura de unidad. Son propuestas básicas y necesarias, dado que el actual contenido programático de Podemos debe adecuarse, en esta materia, al sentir mayoritario de la ciudadanía española</t>
   </si>
   <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/aportacion_al-Debate_-provisional.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Eva|Rose Piris|650030335</t>
   </si>
   <si>
@@ -1401,6 +1624,9 @@
   </si>
   <si>
     <t xml:space="preserve">Es hora de dar la vuelta al sistema y de considerar como motor de la actividad económica al trabajo y tener como objetivo el pleno empleo y la conciliación personal, considerando al capital como un recurso necesario para ello y por tanto adecuadamente retribuido, pero no al revés. Se debe establecer un suelo de ingresos fiscales para los sectores económicamente boyantes, que deben ser socialmente solidarios, y sectores especulativos o exclusivamente financieros y las transacciones financieras, mediante el  establecimiento de un gravamen fiscal específico. Potenciar sectores económicos generadores de empleo, cultura, bienestar e inteligencia colectiva, Las actividades artísticas y culturales,  El sector rural, La economía circular, El consumo de cercanía, El desarrollo y potenciación administrativa, cuantitativa y cualitativamente de la Ley de Dependencia, el logro de la plena inclusión del variado colectivo de los discapacitados y el apoyo a las entidades y ONGs del Tercer Sector.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/NMP-planteamiento-Resumen-Cultura-y-Sociedad-Sectores-a-potenciar.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Enrique|Parra Baño|609624276</t>
@@ -1419,6 +1645,9 @@
 - Nuevos modelos societarios con figuras flexibles de propiedad.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/Economía_Cambios_Fiscales_y_Societarios_para_facilitar_la_transición_económica.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Juan|Mateu Mullor|609389819</t>
   </si>
   <si>
@@ -1434,6 +1663,9 @@
     <t xml:space="preserve">Accesibilidad y diversidad funcional</t>
   </si>
   <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/Resolución-Empoderamiento-Discapacidad.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">HECTOR|MARAVALL GOMEZ-ALLENDE|619808879</t>
   </si>
   <si>
@@ -1449,12 +1681,18 @@
     <t xml:space="preserve">Partiendo de la importante demanda de cuidados existente y de los deficits de atencion, se formula una propuesta para que el Sistema de Atencion a la Dependencia tenga una financiacion suficiente para garantizar la cobertura universal, de calidad, profesional.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/ATENCION-A-LA-DEPENDENCIA.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Necesidad de gravar adecuadamente la renta del suelo y los recursos naturales.</t>
   </si>
   <si>
     <t xml:space="preserve">En necesario para el necesario cambio de modelo productivo introducir el gravamen a las rentas del suelo y otros recursos naturales, como método de poner fin a la especulación y la obtención de rentas ilícitas sin aportar valor real a la economía, lo que ha sucedido cuando se ha destinado toda la inversión al sector inmobiliario. Diversas implementaciones de este gravámen ya existen en países de nuestro entorno más dinámicos económicamente como Dinamarca y Reino Unido. Se trata de gravar a los que ganan sin relmente producir riqueza alguna.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/Propuesta_Fiscalidad_Rentas_Suelo_FERNANDO_SCORNIK_GERSTEIN.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fernando|Scornik Gerstein|609389819</t>
   </si>
   <si>
@@ -1464,48 +1702,72 @@
     <t xml:space="preserve">Propuesta de sistema prioritario de fórmula de gobiernos basada en la proporcionalidad y respeto a la asignación del electorado a los distintos pesos que haya dado a las fuerzas con las que los votantes entiendan que pueden ser compatibles. Se debe de apostar por mostrar gestión, y demostrar que la gestión en la áreas asignadas es mejor que la de los socios de gobierno, solo de este modo se podrá generar la confianza que permita avanzar posiciones.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/Sobre_pactos_de_gobiernos_Colaboración_competitiva_Coopetición.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Medio Ambiente. Tasa de reposición medioambiental como % del PIB como obligación de inversión en sostenibilidad</t>
   </si>
   <si>
     <t xml:space="preserve">La idea consiste en considerar al medio ambiente algo cuyo desgaste (incendios, desertización, vertidos, degradación de costas, contaminación, etc) hay que reponer o subsanar y emplear en el PIB una tasa de reposición (a equivalencia de la del capital productivo) y que obligue a dotar presupuestariamente su importe en todos los niveles administrativos con competencias medioambientales, generando empleo y aminorando la degradación del medio.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/Medio_Ambiente_Tasa_de_reposición_medioambiental_como-_del-PIB.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nuevo Modelo Productivo y la nueva figura del empresario. Desarrollo social y generación de bienestar</t>
   </si>
   <si>
     <t xml:space="preserve">Es hora de dar la vuelta al sistema y de considerar como motor de la actividad económica al trabajo y tener como objetivo el pleno empleo y la conciliación personal, considerando al capital como un recurso necesario para ello y por tanto adecuadamente retribuido, pero no al revés. La reivindicación de la figura del empresario, haciendo de él la figura de emprendimiento y liderazgo que nuestro país merece y necesita. Especialmente en el caso del trabajador autónomo. Nuestros gobernantes ha orientado el apoyo del poder público a favor del capital y no de la empresa o del trabajador autónomo.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/NMP-planteamiento-la-nueva-figura-del-empresario-y-el-autonomo.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nuevo Modelo Productivo y las empresas eléctricas. La energía es nacionalizable.</t>
   </si>
   <si>
     <t xml:space="preserve">Es hora de dar la vuelta al sistema y de considerar como motor de la actividad económica al trabajo y tener como objetivo el pleno empleo y la conciliación personal, considerando al capital como un recurso necesario para ello y por tanto adecuadamente retribuido, pero no al revés. La energía es un recurso libremente disponible en la naturaleza e imprescindible para la actividad económica y en algunos casos para mantener una vida digna, o incluso simplemente la vida. La acción pública es legítima e imprescindible en la forma y con la intensidad adecuadas.Que recursos naturales libremente accesibles, como el viento o la luz solar, puedan ser usados para la producción de energía por cualquier persona o empresa, sin más limitación que el mantenimiento del equilibrio económico y social común.Que la generación de la energía no sea objeto de lucro más allá de lo que se adecúe a la cuantía y el riesgo de la inversión necesaria para su producción.Garantizar que la energía llega a quien lo neces</t>
   </si>
   <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/NMP-planteamiento-energía.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nuevo Modelo Productivo y el trabajo. Vivir mejor es el objetivo último del trabajo y la empresa su herramienta</t>
   </si>
   <si>
     <t xml:space="preserve">Es hora de dar la vuelta al sistema y de considerar como motor de la actividad económica al trabajo y tener como objetivo el pleno empleo y la conciliación personal, considerando al capital como un recurso necesario para ello y por tanto adecuadamente retribuido, pero no al revés. La potenciación de empresas generadoras de empleo. Revisión y potenciación de la negociación colectiva. Potenciación e innovación de los sindicatos. La dotación para el fondo de pensiones públicas se concibe como proporcional a los sueldos y salarios, sin topes, incluidas todo tipo de indemnizaciones. Establecer una medición adicional del paro.  Cambiar jornadas de un empleo por la cantidad de empleos. Un sector económicamente boyante debe ser fiscalmente solidario. Establecimiento de un gravamen fiscal  a las actividades, que siendo justas y legítimas, no generan empleo o lo hacen en muy pequeña Presencia de los trabajadores en el  Consejo de Administración de su propia empresa. Mejora de la conciliación</t>
   </si>
   <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/NMP-planteamiento-el-trabajo.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nuevo Modelo Productivo y la financiación de la empresa. Hoy nada legitimaría la banca privada</t>
   </si>
   <si>
     <t xml:space="preserve">Es hora de dar la vuelta al sistema y de considerar como motor de la actividad económica al trabajo y tener como objetivo el pleno empleo y la conciliación personal, considerando al capital como un recurso necesario para ello y por tanto adecuadamente retribuido, pero no al revés. Un enfoque público de la banca. Potenciando aquellas entidades de las que ya se dispone, como BANKIA, y fijando para el resto de la banca unos mínimos en la aplicación a sus activos dentro de España de los pasivos captados en nuestro país y normalizando los criterios y prioridades en la asignación de los créditos incluidos en estos mínimos. El ahorro español para el crédito español.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/NMP-planteamiento-el-capital-y-la-financiacion.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nuevo Modelo Productivo y la ecología. La protección de la naturaleza debe ser un derecho fundamental en la CE</t>
   </si>
   <si>
     <t xml:space="preserve">Es hora de dar la vuelta al sistema y de considerar como motor de la actividad económica al trabajo y tener como objetivo el pleno empleo y la conciliación personal, considerando al capital como un recurso necesario para ello y por tanto adecuadamente retribuido, pero no al revés. La Constitución Española debe ser más contundente en el reconocimiento y protección del binomio indivisible humano-naturaleza, considerando, entre otras cosas, como derecho fundamental la protección de la vida de dicho binomio. Económicamente, hay que potenciar la información al consumidor, hacer de la fiscalidad un factor orientador del consumo y de resarcimiento social</t>
   </si>
   <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/NMP-planteamiento-ecología-materiales-y-materias-primas.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">VIOLENCIA MACHISTA EN MUJERES MAYORES PDF</t>
   </si>
   <si>
     <t xml:space="preserve">Cuando se habla de violencia machista es conveniente separar por edad a las víctimas así como a los agresores ,ya que ni los síntomas ,ni la legitimidad en el aspecto social, ni los motivos que las llevan aguantar el maltrato son iguales .  Las mujeres mayores han sido socialmente educadas y socializadas con unas actitudes y unos valores tradicionales . Han sido educadas para ser sumisas y así estar en silencio ,su rol de vida impuesta por una moralidad religiosa y no secular, sin libertad para desarrollarse como personas ,como decía Simone de Beauvoir "una no nace se hace mujer" .    En nuestro país los recursos asignados para las víctimas de violencia machista , están enfocados en mujeres jóvenes, quedando desamparadas las mujeres mayores y relegadas a una resignación injusta. Con nuestra propuestas queremos  impulsar un cambio político y social , que legitime  un ámbito legal para salvaguardar la dignidad y seguridad de este colectivo de mujeres .</t>
   </si>
   <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/VIOLENCIA-MACHISTA-EN-MUJERES-MAYORES-PDF.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">MARIA JOSE|MARTIN  AZAÑA|639243920</t>
   </si>
   <si>
@@ -1518,6 +1780,9 @@
     <t xml:space="preserve">Este verano, en vacaciones, a raíz de una intervención en Plaza Podemos de un compañero sobre la bandera de España , empece a estudiar el tema  pues no me cuadraba que la Bandera Constitucional  Art 3.1  no lleva ningún tipo de escudo, no  se indica ningún desarrollo legislativo de  la misma y la que usualmente se ondea hoy en dia  es con escudo real y  podría considerarse la bandera constitucional monárquica. Fue una sorpresa leer los diarios de sesiones de las Cortes  y la situación de 1981 y las "maniobras" monárquicas para salvar "el error" del art. 3.1 de la CE. , Sirva de paralelismo la bandera de Italia (nadie le llama bandera republicana), que definió, conforme a su Constitución vigente, la bandera sin ningún tipo de escudo, eliminando el monárquico que incorporaba hasta 1946. Mi estudio consta de cuatro partes, en power point. Os mando un "trailer" de una parte solo me caben dos megas. Si os gusta os lo puedo enviar en un pen drive completo.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/bandera-constitucional-trailer-22.01.2016.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Javier|Carretero Liau|669738495</t>
   </si>
   <si>
@@ -1530,6 +1795,9 @@
     <t xml:space="preserve">Se propone la creación de Pensiones para Amas de Casa, por considerarlas Pensiones de Memoria Histórica. Son pensiones para mujeres mayores de 65 años que no han cotizado a la S.Social porque no han tenido oportunidad de cotizar ó bien porque al casarse el marido las retiraba del trabajo. La oferta de trabajo femenino era muy reducida durante el franquismo. Aunque formalmente no haya habido cotización a la SS, es importante destacar que es obligado reconocer la contribución social de cientos de miles de mujeres a las que la sociedad de la época obligó a contribuir desde el hogar. Son mujeres que viven de la pensión de su marido. Esto les daría dignidad de jubiladas a la vez que libertad.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/Pensiones_Amas_de_Casa-.Validada1.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rosa|Delgado Poblete|652 15 30 17</t>
   </si>
   <si>
@@ -1551,6 +1819,9 @@
     <t xml:space="preserve">“Sostener colectivamente nuestro territorio rural es una apuesta por la soberanía alimentaria”  aborda la necesidad de una producción orientada por campesinos autónomos con una perspectiva holística de la actividad agrícola (incluyendo el respeto de la naturaleza, la producción orgánica, la salvaguardia del paisaje) frente a  una agricultura organizada de manera “industrial”, en función de la lógica del capital. Pretende poner el foco en el  modelo agroindustrial como el responsable de la destrucción de empleo y  en el origen de las grandes migraciones hacia las ciudades.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/Sostener-colectivamente-nuestro-territorio-rural-es-una-apuesta-por-la-soberanía-alimentaria.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">María Concepción|Álvarez García|639457607</t>
   </si>
   <si>
@@ -1563,6 +1834,9 @@
     <t xml:space="preserve">Para Podemos resulta vital ahondar en la consideración de la planificación estratégica, integral, ética y profesional de la comunicación, reconociéndola como input de gestión que se estructura y afianza en la esfera directiva de la organización como generador de rendimiento, mediante la conformación de una imagen notoria, reputada y sostenible de la entidad, entre los públicos con los que convive y se relaciona.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/2-COMUNICACIÓN-ORGANIZACIONAL-APORTACIÓN-DEBATE-Vistalegre-II.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mª Luisa|Vila Núñez|696374219</t>
   </si>
   <si>
@@ -1575,12 +1849,18 @@
     <t xml:space="preserve">El papel de los círculos. Su revitalización como corriente viva de deliberación y liderazgos de las personas, desde la base y en igualdad. La recuperación de las señas de identidad de Podemos para un nuevo modelo organizacional edificado de la mano de la gente, desde la identidad, la coherencia, la cohesión y la querencia.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/1GENTE-INSCRITA-DE-BASE-APORTACIÓN-DEBATE-Vistalegre-II.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Soluciones flexibles a un mundo complejo</t>
   </si>
   <si>
     <t xml:space="preserve">Se proponen dos cuestiones. Una la de asumir lo bueno de todas las escuelas economicas para construir una alternativa, y defender un debate publico en el pais sobre el proyecto economico.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/4-Aportacion-pdf.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jon|Gorrotxategi Estankona|665712705</t>
   </si>
   <si>
@@ -1593,24 +1873,36 @@
     <t xml:space="preserve">Aborda la condiccion humana en la construccion de una fuerza politica. La etica y la participacion de cada persona porque el sentido comun nos iguala</t>
   </si>
   <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/3-Aportacion-pdf.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Aprender de los errores.</t>
   </si>
   <si>
     <t xml:space="preserve">Aborda la cuestion de la descentralizacion y las corrientes internas.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/2-Aportacion-pdf.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Un Proyecto comun de la gente</t>
   </si>
   <si>
     <t xml:space="preserve">Se defiende la importancia de que el.Proyecto nazca de la participacion de la gente, para que tenga fuerza colectiva.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/1-Aportacion-pdf.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">PROGRAMA DE ATENCION PSQUIATRICA A PIE DE CALLE, A PERSONAS SIN HOGAR. CON PROBLEMAS DE SALUD MENTAL Y ALOJAMIENTO ADECUADO PARA REHABILITACIÓN A LARGO PLAZO</t>
   </si>
   <si>
     <t xml:space="preserve">Duermen en un rincón, sobre  un banco, tras un matorral en los jardines…. tapados con cartones en estas gélidas noches de invierno. Llevan años, muchos más de una  década. En todas las personas que duermen en la calle con problemas de salud mental, también con otros  problemas, se produce un proceso de “pez que se muerde la cola”: ellos no van a los centros de atención en psiquiátrica y psicológica porque están en su mundo, fuera del sistema y, a su vez,  no  inician su incorporación  porque no son tratados. Necesitan  diferente forma de abordar su problema que el resto de la población, como un primer paso hacia la recuperación,  la atención inicial “in situ” podría iniciarse por servicios sanitarios a pie de calle o en unidades móviles, bien existentes o bien de nueva creación que incorpore un psiquiatra en unas visitas y, en otras, una enfermera que ayudase en la adherencia al tratamiento y un alojamiento adecuado para una rehabilitación psiquiátrica y psicológica a largo plazo</t>
   </si>
   <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/PROPUESTA-DE-ATENCION-PSQUIATRICA-Y-NECESIDADES-BASICAS-A-LAS-PERSONAS-SIN-HOGAR.-Capacitandoless.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Carmen|Herrera Espiñeira|626767250</t>
   </si>
   <si>
@@ -1624,6 +1916,9 @@
   </si>
   <si>
     <t xml:space="preserve">Vivienda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/Ap.-al-Debate-Vivienda-Sin-viviendas-vacías.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Fernando|Ruiz de la Fuente Perera|610826264</t>
@@ -1642,6 +1937,9 @@
     <t xml:space="preserve">Acción sindical y empleo</t>
   </si>
   <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/imposible2.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">JUANJU|ARRIERO GONZALEZ|609 109 451</t>
   </si>
   <si>
@@ -1653,6 +1951,9 @@
   <si>
     <t xml:space="preserve">En Andalucía hay mas de 400.000 viviendas ilegales, quien lo permitió? y porque los únicos que están pagando las consecuencias son los que que las construyeron ,con expedientes, multas coercitivas, derribos y penas de cárcel, cuando bajo mi punto de vista miles de ellos estarían en la misma situación que los que están siendo desahuciados ,creo que esos miles realizaron un acto revolucionario y prefirieron incumplir la ley, antes que meterse en hipotecas que con el tiempo se ha demostrado que eran verdaderas estafas.
 La ley  de ordenación urbana Andaluza aprobado en 2002  no da solución a este grave problema que mas pronto que tarde va a estallar, y hasta ahora no a habido un debate político para dar solución al problema existente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/DICTAMEN-PROYECTO-LEY-MODIFICACIÓN-LOUA-...EDIFICACIONES-CONSTRUIDAS-SOBRE-PARCELACIONES-URBANÍ-4.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">jose antonio|castro|cortegana</t>
@@ -1672,6 +1973,9 @@
 No somos étites, somos pueblo y el pueblo precisa cerrar heridas.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/MEMORIA-HISTORICA-Y-BEBES-ROBADOS.-Aportes-al-debate-de-Vistalegre2.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">PILAR|NAVARRO RICO|654017504</t>
   </si>
   <si>
@@ -1682,6 +1986,9 @@
   </si>
   <si>
     <t xml:space="preserve">La primera preocupación de la ciudadanía en este país según el CIS es el paro. Esta propuesta de Resolución viene MOTIVADA porque nuestro Programa dedica apenas 9 páginas de 258 al “Derecho al trabajo y empleo digno para todas las personas. Una política para avanzar en la mejora de las condiciones de trabajo y avanzar hacia la igualdad de género” y 5 al “Nuevo modelo productivo”. Tampoco se ha hecho especial hincapié en los documentos hasta ahora presentados. Este tema merece un debate más amplio que esta propuesta de Resolución pretende abrir y que es necesario explicitar y concretar un ambicioso Plan de choque contra el desempleo y la precariedad.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/LA-CENTRALIDAD-DEL-EMPLEO.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">JON|MACHIMBARRENA VAN RENSBURG|605027315</t>
@@ -1701,6 +2008,9 @@
 Llevemos una campaña mundial para que el próximo Secretario General de la ONU este al lado de los ciudadanos.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/Democratizaciu00f3n-de-la-ONU-20-01-17.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sergio Silvano|Sánchez Rivas|650260412</t>
   </si>
   <si>
@@ -1711,6 +2021,9 @@
   </si>
   <si>
     <t xml:space="preserve">Documento con ideas para facilitar la participación y la inclusión de las personas con Diversidad Funcional en la vida política y social del país. Están separadas en 2 grandes grupos. Ideas de carácter interno para accesibilizar el partido y medidas de carácter externo para hacer visible a la sociedad los problemas de inclusión que tiene este colectivo para participar activamente y de forma autónoma en la vida social, cultural, educativa y política del país.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/Inclusion-y-participacion-total-ampliada-copia.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Álvaro|Domingo  Zurdo|637520937</t>
@@ -1793,8 +2106,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1819,24 +2136,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X92"/>
+  <dimension ref="A1:Y94"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="168.459183673469"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="215.688775510204"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.4234693877551"/>
-    <col collapsed="false" hidden="false" max="12" min="4" style="0" width="47.015306122449"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="48.0051020408163"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="47.9132653061224"/>
-    <col collapsed="false" hidden="false" max="22" min="15" style="0" width="48.0051020408163"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="35.4030612244898"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="10.015306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="25" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="168.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="215.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="33.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="207.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="5" style="0" width="47.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="48.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="47.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="16" style="0" width="48.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="35.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="10.02"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="26" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1855,7 +2173,7 @@
       <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="0" t="s">
@@ -1876,13 +2194,13 @@
       <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="0" t="s">
@@ -1912,2464 +2230,2792 @@
       <c r="X1" s="0" t="s">
         <v>23</v>
       </c>
+      <c r="Y1" s="0" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="X2" s="0" t="n">
-        <v>92391</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="55.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E2" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="X2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y2" s="0" t="n">
+        <v>92466</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="W3" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="X3" s="0" t="n">
-        <v>92386</v>
+        <v>36</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="X3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y3" s="0" t="n">
+        <v>92404</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="W4" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="X4" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="X4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y4" s="0" t="n">
+        <v>92391</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="55.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="X5" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y5" s="0" t="n">
+        <v>92386</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="X6" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y6" s="0" t="n">
         <v>92348</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="W5" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="X5" s="0" t="n">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="X7" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y7" s="0" t="n">
         <v>92342</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="45.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="W6" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="X6" s="0" t="n">
+    <row r="8" customFormat="false" ht="45.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="X8" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y8" s="0" t="n">
         <v>92141</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="55.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="N7" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="O7" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="P7" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q7" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="R7" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="S7" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="W7" s="0" t="s">
+    <row r="9" customFormat="false" ht="55.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="X7" s="0" t="n">
+      <c r="B9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="R9" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="S9" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="T9" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="X9" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y9" s="0" t="n">
         <v>92140</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="W8" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="X8" s="0" t="n">
-        <v>92124</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="W9" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="X9" s="0" t="n">
-        <v>92123</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="W10" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="X10" s="0" t="n">
-        <v>92122</v>
+        <v>91</v>
+      </c>
+      <c r="X10" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y10" s="0" t="n">
+        <v>92124</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="W11" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="X11" s="0" t="n">
-        <v>92121</v>
+        <v>96</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="X11" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y11" s="0" t="n">
+        <v>92123</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="W12" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="X12" s="0" t="n">
-        <v>92120</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="55.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>101</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="X12" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y12" s="0" t="n">
+        <v>92122</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>89</v>
+        <v>103</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>104</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="W13" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="X13" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="X13" s="0" t="n">
-        <v>91955</v>
+      <c r="Y13" s="0" t="n">
+        <v>92121</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="W14" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="X14" s="0" t="n">
+        <v>112</v>
+      </c>
+      <c r="X14" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y14" s="0" t="n">
+        <v>92120</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="55.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="X15" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y15" s="0" t="n">
+        <v>91955</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="X16" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y16" s="0" t="n">
         <v>91951</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="W15" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="X15" s="0" t="n">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="X17" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y17" s="0" t="n">
         <v>91949</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="W16" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="X16" s="0" t="n">
+    <row r="18" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="X18" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y18" s="0" t="n">
         <v>91946</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="120.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="W17" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="X17" s="0" t="n">
+    <row r="19" customFormat="false" ht="120.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="X19" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y19" s="0" t="n">
         <v>91929</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="W18" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="X18" s="0" t="n">
-        <v>91763</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="W19" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="X19" s="0" t="n">
-        <v>91760</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="X20" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y20" s="0" t="n">
+        <v>91763</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C21" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="B20" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="W20" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="X20" s="0" t="n">
+      <c r="D21" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="X21" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y21" s="0" t="n">
+        <v>91760</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="X22" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y22" s="0" t="n">
         <v>91732</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="77.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="H21" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="W21" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="X21" s="0" t="n">
+    <row r="23" customFormat="false" ht="77.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="X23" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y23" s="0" t="n">
         <v>91720</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="45.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="W22" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="X22" s="0" t="n">
+    <row r="24" customFormat="false" ht="45.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="X24" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y24" s="0" t="n">
         <v>91719</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="W23" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="X23" s="0" t="n">
-        <v>91717</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="H24" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="I24" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="J24" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="K24" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="L24" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="M24" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="W24" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="X24" s="0" t="n">
-        <v>91716</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>159</v>
+        <v>63</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="W25" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="X25" s="0" t="n">
-        <v>91715</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>175</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="X25" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y25" s="0" t="n">
+        <v>91717</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>163</v>
+        <v>179</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>180</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>45</v>
+        <v>181</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>46</v>
+        <v>182</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="W26" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="X26" s="0" t="n">
-        <v>91714</v>
+        <v>183</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="M26" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="N26" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="X26" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y26" s="0" t="n">
+        <v>91716</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="W27" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="X27" s="0" t="n">
-        <v>91713</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>197</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="X27" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y27" s="0" t="n">
+        <v>91715</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>172</v>
+        <v>200</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>201</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>173</v>
+        <v>63</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="W28" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="X28" s="0" t="n">
-        <v>91712</v>
+        <v>65</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="X28" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y28" s="0" t="n">
+        <v>91714</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>178</v>
+        <v>206</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>26</v>
+        <v>207</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="W29" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="X29" s="0" t="n">
-        <v>91711</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>208</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="X29" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y29" s="0" t="n">
+        <v>91713</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>181</v>
+        <v>211</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>45</v>
+        <v>213</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>46</v>
+        <v>214</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>164</v>
+        <v>215</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="G30" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="H30" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="I30" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="J30" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="K30" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="L30" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="M30" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="W30" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="X30" s="0" t="n">
-        <v>91710</v>
+        <v>216</v>
+      </c>
+      <c r="X30" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y30" s="0" t="n">
+        <v>91712</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>192</v>
+        <v>220</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="W31" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="X31" s="0" t="n">
-        <v>91709</v>
+        <v>221</v>
+      </c>
+      <c r="X31" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y31" s="0" t="n">
+        <v>91711</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="W32" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="X32" s="0" t="n">
-        <v>91708</v>
+        <v>65</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="K32" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="L32" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="M32" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="N32" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="X32" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y32" s="0" t="n">
+        <v>91710</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>197</v>
+        <v>233</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>198</v>
+        <v>234</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="W33" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="X33" s="0" t="n">
-        <v>91707</v>
+        <v>235</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="X33" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y33" s="0" t="n">
+        <v>91709</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>201</v>
+        <v>238</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>202</v>
+        <v>239</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>192</v>
+        <v>240</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="W34" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="X34" s="0" t="n">
-        <v>91706</v>
+        <v>241</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="X34" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y34" s="0" t="n">
+        <v>91708</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>203</v>
+        <v>242</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>204</v>
+        <v>243</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>205</v>
+        <v>244</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="F35" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="G35" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="H35" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="I35" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="J35" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="W35" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="X35" s="0" t="n">
-        <v>91705</v>
+        <v>245</v>
+      </c>
+      <c r="X35" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y35" s="0" t="n">
+        <v>91707</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>213</v>
+        <v>247</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>214</v>
+        <v>248</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="W36" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="X36" s="0" t="n">
-        <v>91704</v>
+        <v>249</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="X36" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y36" s="0" t="n">
+        <v>91706</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>216</v>
+        <v>251</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>168</v>
+        <v>27</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="W37" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="X37" s="0" t="n">
-        <v>91703</v>
+        <v>252</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="I37" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="J37" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="K37" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="X37" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y37" s="0" t="n">
+        <v>91705</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>219</v>
+        <v>261</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>220</v>
+        <v>262</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>221</v>
+        <v>263</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="F38" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="G38" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="H38" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="I38" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="W38" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="X38" s="0" t="n">
-        <v>91701</v>
+        <v>245</v>
+      </c>
+      <c r="X38" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y38" s="0" t="n">
+        <v>91704</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>228</v>
+        <v>264</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>231</v>
+        <v>266</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>232</v>
-      </c>
-      <c r="F39" s="0" t="s">
-        <v>233</v>
-      </c>
-      <c r="G39" s="0" t="s">
-        <v>234</v>
-      </c>
-      <c r="H39" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="I39" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="J39" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="K39" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="L39" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="M39" s="0" t="s">
-        <v>240</v>
-      </c>
-      <c r="N39" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="O39" s="0" t="s">
-        <v>242</v>
-      </c>
-      <c r="P39" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="W39" s="0" t="s">
-        <v>244</v>
-      </c>
-      <c r="X39" s="0" t="n">
-        <v>91700</v>
+        <v>267</v>
+      </c>
+      <c r="X39" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y39" s="0" t="n">
+        <v>91703</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="K40" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="L40" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="M40" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="N40" s="0" t="s">
-        <v>257</v>
-      </c>
-      <c r="O40" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="P40" s="0" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q40" s="0" t="s">
-        <v>260</v>
-      </c>
-      <c r="W40" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="X40" s="0" t="n">
-        <v>91696</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="66.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>277</v>
+      </c>
+      <c r="X40" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y40" s="0" t="n">
+        <v>91701</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>263</v>
+        <v>279</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>280</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>45</v>
+        <v>281</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="W41" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="X41" s="0" t="n">
-        <v>91694</v>
+        <v>282</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="I41" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="J41" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="K41" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="L41" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="M41" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="N41" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="O41" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="P41" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q41" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="X41" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="Y41" s="0" t="n">
+        <v>91700</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>271</v>
-      </c>
-      <c r="W42" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="X42" s="0" t="n">
-        <v>91693</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>302</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="I42" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="J42" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="K42" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="L42" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="M42" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="N42" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="O42" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="P42" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q42" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="R42" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="X42" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y42" s="0" t="n">
+        <v>91696</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="66.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>274</v>
+        <v>315</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>316</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>275</v>
+        <v>317</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>276</v>
-      </c>
-      <c r="F43" s="0" t="s">
-        <v>270</v>
-      </c>
-      <c r="G43" s="0" t="s">
-        <v>271</v>
-      </c>
-      <c r="W43" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="X43" s="0" t="n">
-        <v>91692</v>
+        <v>318</v>
+      </c>
+      <c r="X43" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="Y43" s="0" t="n">
+        <v>91694</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>277</v>
+        <v>320</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>278</v>
+        <v>321</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>279</v>
+        <v>63</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>280</v>
+        <v>322</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>281</v>
+        <v>323</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>282</v>
+        <v>324</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>283</v>
+        <v>325</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="I44" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="J44" s="0" t="s">
-        <v>286</v>
-      </c>
-      <c r="K44" s="0" t="s">
-        <v>287</v>
-      </c>
-      <c r="L44" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="M44" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="N44" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="O44" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="P44" s="0" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q44" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="R44" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="S44" s="0" t="s">
-        <v>295</v>
-      </c>
-      <c r="T44" s="0" t="s">
-        <v>296</v>
-      </c>
-      <c r="U44" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="V44" s="0" t="s">
-        <v>298</v>
-      </c>
-      <c r="W44" s="0" t="s">
-        <v>299</v>
-      </c>
-      <c r="X44" s="0" t="n">
-        <v>91691</v>
+        <v>326</v>
+      </c>
+      <c r="X44" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y44" s="0" t="n">
+        <v>91693</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>300</v>
+        <v>328</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>301</v>
+        <v>329</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>302</v>
+        <v>330</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>303</v>
+        <v>331</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>304</v>
+        <v>332</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>305</v>
-      </c>
-      <c r="W45" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="X45" s="0" t="n">
-        <v>91690</v>
+        <v>325</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="X45" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y45" s="0" t="n">
+        <v>91692</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>306</v>
+        <v>333</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>307</v>
+        <v>334</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>305</v>
+        <v>338</v>
+      </c>
+      <c r="H46" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="I46" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="J46" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="K46" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="L46" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="M46" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="N46" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="O46" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="P46" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q46" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="R46" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="S46" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="T46" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="U46" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="V46" s="0" t="s">
+        <v>353</v>
       </c>
       <c r="W46" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="X46" s="0" t="n">
-        <v>91689</v>
+        <v>354</v>
+      </c>
+      <c r="X46" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="Y46" s="0" t="n">
+        <v>91691</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>308</v>
+        <v>356</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>309</v>
+        <v>357</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>310</v>
+        <v>115</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>302</v>
+        <v>358</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>303</v>
+        <v>359</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>311</v>
+        <v>360</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>305</v>
-      </c>
-      <c r="W47" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="X47" s="0" t="n">
-        <v>91688</v>
+        <v>361</v>
+      </c>
+      <c r="H47" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="X47" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y47" s="0" t="n">
+        <v>91690</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>312</v>
+        <v>363</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>313</v>
+        <v>364</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>268</v>
+        <v>365</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>270</v>
+        <v>359</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>269</v>
+        <v>360</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>314</v>
-      </c>
-      <c r="W48" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="X48" s="0" t="n">
-        <v>91685</v>
+        <v>361</v>
+      </c>
+      <c r="H48" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="X48" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y48" s="0" t="n">
+        <v>91689</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>315</v>
+        <v>366</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>316</v>
+        <v>367</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>45</v>
+        <v>368</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>317</v>
+        <v>369</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>318</v>
+        <v>359</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>319</v>
+        <v>360</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>320</v>
+        <v>370</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>321</v>
-      </c>
-      <c r="I49" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="J49" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="X49" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y49" s="0" t="n">
+        <v>91688</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="E50" s="0" t="s">
         <v>323</v>
       </c>
-      <c r="K49" s="0" t="s">
+      <c r="F50" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="G50" s="0" t="s">
         <v>324</v>
       </c>
-      <c r="L49" s="0" t="s">
-        <v>325</v>
-      </c>
-      <c r="M49" s="0" t="s">
-        <v>326</v>
-      </c>
-      <c r="N49" s="0" t="s">
+      <c r="H50" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="X50" s="0" t="s">
         <v>327</v>
       </c>
-      <c r="O49" s="0" t="s">
-        <v>328</v>
-      </c>
-      <c r="P49" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q49" s="0" t="s">
-        <v>330</v>
-      </c>
-      <c r="R49" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="S49" s="0" t="s">
-        <v>332</v>
-      </c>
-      <c r="W49" s="0" t="s">
-        <v>333</v>
-      </c>
-      <c r="X49" s="0" t="n">
-        <v>91680</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D50" s="0" t="s">
-        <v>336</v>
-      </c>
-      <c r="E50" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="F50" s="0" t="s">
-        <v>338</v>
-      </c>
-      <c r="G50" s="0" t="s">
-        <v>339</v>
-      </c>
-      <c r="H50" s="0" t="s">
-        <v>340</v>
-      </c>
-      <c r="I50" s="0" t="s">
-        <v>341</v>
-      </c>
-      <c r="J50" s="0" t="s">
-        <v>342</v>
-      </c>
-      <c r="K50" s="0" t="s">
-        <v>343</v>
-      </c>
-      <c r="L50" s="0" t="s">
-        <v>344</v>
-      </c>
-      <c r="M50" s="0" t="s">
-        <v>345</v>
-      </c>
-      <c r="N50" s="0" t="s">
-        <v>346</v>
-      </c>
-      <c r="O50" s="0" t="s">
-        <v>347</v>
-      </c>
-      <c r="P50" s="0" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q50" s="0" t="s">
-        <v>349</v>
-      </c>
-      <c r="R50" s="0" t="s">
-        <v>350</v>
-      </c>
-      <c r="S50" s="0" t="s">
-        <v>351</v>
-      </c>
-      <c r="T50" s="0" t="s">
-        <v>352</v>
-      </c>
-      <c r="W50" s="0" t="s">
-        <v>353</v>
-      </c>
-      <c r="X50" s="0" t="n">
-        <v>91677</v>
+      <c r="Y50" s="0" t="n">
+        <v>91685</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>354</v>
+        <v>375</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>355</v>
+        <v>376</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>356</v>
+        <v>377</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>357</v>
+        <v>378</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>358</v>
+        <v>379</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>359</v>
+        <v>380</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>360</v>
+        <v>381</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>361</v>
+        <v>382</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>362</v>
+        <v>383</v>
       </c>
       <c r="K51" s="0" t="s">
-        <v>363</v>
+        <v>384</v>
       </c>
       <c r="L51" s="0" t="s">
-        <v>364</v>
+        <v>385</v>
       </c>
       <c r="M51" s="0" t="s">
-        <v>365</v>
-      </c>
-      <c r="W51" s="0" t="s">
-        <v>366</v>
-      </c>
-      <c r="X51" s="0" t="n">
-        <v>91675</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>386</v>
+      </c>
+      <c r="N51" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="O51" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="P51" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q51" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="R51" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="S51" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="T51" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="X51" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y51" s="0" t="n">
+        <v>91680</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>367</v>
-      </c>
-      <c r="B52" s="0" t="s">
-        <v>368</v>
+        <v>395</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>396</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>369</v>
+        <v>397</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="W52" s="0" t="s">
-        <v>371</v>
-      </c>
-      <c r="X52" s="0" t="n">
-        <v>91670</v>
+        <v>398</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="G52" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="H52" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="I52" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="J52" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="K52" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="L52" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="M52" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="N52" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="O52" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="P52" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q52" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="R52" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="S52" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="T52" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="U52" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="X52" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="Y52" s="0" t="n">
+        <v>91677</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>372</v>
+        <v>416</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>373</v>
+        <v>417</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>374</v>
+        <v>115</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>369</v>
+        <v>418</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="W53" s="0" t="s">
-        <v>371</v>
-      </c>
-      <c r="X53" s="0" t="n">
+        <v>419</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="G53" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="H53" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="I53" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="J53" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="K53" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="L53" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="M53" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="N53" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="X53" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="Y53" s="0" t="n">
+        <v>91675</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="X54" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="Y54" s="0" t="n">
+        <v>91670</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="X55" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="Y55" s="0" t="n">
         <v>91669</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
-        <v>375</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="C54" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="D54" s="0" t="s">
-        <v>377</v>
-      </c>
-      <c r="E54" s="0" t="s">
-        <v>378</v>
-      </c>
-      <c r="F54" s="0" t="s">
-        <v>379</v>
-      </c>
-      <c r="G54" s="0" t="s">
-        <v>380</v>
-      </c>
-      <c r="H54" s="0" t="s">
-        <v>381</v>
-      </c>
-      <c r="I54" s="0" t="s">
-        <v>382</v>
-      </c>
-      <c r="J54" s="0" t="s">
-        <v>383</v>
-      </c>
-      <c r="K54" s="0" t="s">
-        <v>384</v>
-      </c>
-      <c r="L54" s="0" t="s">
-        <v>385</v>
-      </c>
-      <c r="M54" s="0" t="s">
-        <v>386</v>
-      </c>
-      <c r="N54" s="0" t="s">
-        <v>387</v>
-      </c>
-      <c r="O54" s="0" t="s">
-        <v>388</v>
-      </c>
-      <c r="W54" s="0" t="s">
-        <v>389</v>
-      </c>
-      <c r="X54" s="0" t="n">
-        <v>91666</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
-        <v>390</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="C55" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D55" s="0" t="s">
-        <v>392</v>
-      </c>
-      <c r="E55" s="0" t="s">
-        <v>393</v>
-      </c>
-      <c r="F55" s="0" t="s">
-        <v>394</v>
-      </c>
-      <c r="G55" s="0" t="s">
-        <v>395</v>
-      </c>
-      <c r="H55" s="0" t="s">
-        <v>396</v>
-      </c>
-      <c r="I55" s="0" t="s">
-        <v>397</v>
-      </c>
-      <c r="J55" s="0" t="s">
-        <v>398</v>
-      </c>
-      <c r="K55" s="0" t="s">
-        <v>399</v>
-      </c>
-      <c r="L55" s="0" t="s">
-        <v>400</v>
-      </c>
-      <c r="M55" s="0" t="s">
-        <v>401</v>
-      </c>
-      <c r="N55" s="0" t="s">
-        <v>402</v>
-      </c>
-      <c r="O55" s="0" t="s">
-        <v>403</v>
-      </c>
-      <c r="P55" s="0" t="s">
-        <v>404</v>
-      </c>
-      <c r="Q55" s="0" t="s">
-        <v>405</v>
-      </c>
-      <c r="R55" s="0" t="s">
-        <v>406</v>
-      </c>
-      <c r="S55" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="T55" s="0" t="s">
-        <v>407</v>
-      </c>
-      <c r="U55" s="0" t="s">
-        <v>408</v>
-      </c>
-      <c r="V55" s="0" t="s">
-        <v>409</v>
-      </c>
-      <c r="W55" s="0" t="s">
-        <v>410</v>
-      </c>
-      <c r="X55" s="0" t="n">
-        <v>91665</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>411</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>412</v>
+        <v>440</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>441</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>413</v>
-      </c>
-      <c r="W56" s="0" t="s">
-        <v>414</v>
-      </c>
-      <c r="X56" s="0" t="n">
+        <v>442</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="G56" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="H56" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="I56" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="J56" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="K56" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="L56" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="M56" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="N56" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="O56" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="P56" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="X56" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="Y56" s="0" t="n">
+        <v>91666</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="G57" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="H57" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="I57" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="J57" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="K57" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="L57" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="M57" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="N57" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="O57" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="P57" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="Q57" s="0" t="s">
+        <v>471</v>
+      </c>
+      <c r="R57" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="S57" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="T57" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="U57" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="V57" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="W57" s="0" t="s">
+        <v>476</v>
+      </c>
+      <c r="X57" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="Y57" s="0" t="n">
+        <v>91665</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="X58" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="Y58" s="0" t="n">
         <v>91664</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="55.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
-        <v>415</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C57" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="D57" s="0" t="s">
-        <v>417</v>
-      </c>
-      <c r="E57" s="0" t="s">
-        <v>418</v>
-      </c>
-      <c r="F57" s="0" t="s">
-        <v>419</v>
-      </c>
-      <c r="W57" s="0" t="s">
-        <v>420</v>
-      </c>
-      <c r="X57" s="0" t="n">
+    <row r="59" customFormat="false" ht="55.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="G59" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="X59" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="Y59" s="0" t="n">
         <v>91658</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
-        <v>421</v>
-      </c>
-      <c r="B58" s="0" t="s">
-        <v>422</v>
-      </c>
-      <c r="C58" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="D58" s="0" t="s">
-        <v>423</v>
-      </c>
-      <c r="W58" s="0" t="s">
-        <v>424</v>
-      </c>
-      <c r="X58" s="0" t="n">
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="X60" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="Y60" s="0" t="n">
         <v>91647</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
-        <v>425</v>
-      </c>
-      <c r="B59" s="0" t="s">
-        <v>426</v>
-      </c>
-      <c r="C59" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D59" s="0" t="s">
-        <v>423</v>
-      </c>
-      <c r="W59" s="0" t="s">
-        <v>424</v>
-      </c>
-      <c r="X59" s="0" t="n">
-        <v>91642</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
-        <v>427</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="C60" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="D60" s="0" t="s">
-        <v>429</v>
-      </c>
-      <c r="E60" s="0" t="s">
-        <v>430</v>
-      </c>
-      <c r="F60" s="0" t="s">
-        <v>431</v>
-      </c>
-      <c r="W60" s="0" t="s">
-        <v>432</v>
-      </c>
-      <c r="X60" s="0" t="n">
-        <v>91628</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>433</v>
+        <v>495</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>434</v>
+        <v>496</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>173</v>
+        <v>63</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>435</v>
-      </c>
-      <c r="W61" s="0" t="s">
-        <v>436</v>
-      </c>
-      <c r="X61" s="0" t="n">
-        <v>91625</v>
+        <v>497</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="X61" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="Y61" s="0" t="n">
+        <v>91642</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>437</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>438</v>
+        <v>498</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>499</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>45</v>
+        <v>213</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>439</v>
+        <v>500</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>440</v>
+        <v>501</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>441</v>
-      </c>
-      <c r="W62" s="0" t="s">
-        <v>442</v>
-      </c>
-      <c r="X62" s="0" t="n">
-        <v>91619</v>
+        <v>502</v>
+      </c>
+      <c r="G62" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="X62" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="Y62" s="0" t="n">
+        <v>91628</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>443</v>
+        <v>505</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>444</v>
+        <v>506</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>78</v>
+        <v>213</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>445</v>
-      </c>
-      <c r="W63" s="0" t="s">
-        <v>446</v>
-      </c>
-      <c r="X63" s="0" t="n">
-        <v>91599</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="55.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>507</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="X63" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="Y63" s="0" t="n">
+        <v>91625</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>447</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>448</v>
+        <v>510</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>511</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>279</v>
+        <v>63</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>449</v>
-      </c>
-      <c r="W64" s="0" t="s">
-        <v>450</v>
-      </c>
-      <c r="X64" s="0" t="n">
-        <v>91582</v>
+        <v>512</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="F64" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="G64" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="X64" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="Y64" s="0" t="n">
+        <v>91619</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>451</v>
+        <v>517</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>452</v>
+        <v>518</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>453</v>
+        <v>100</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>455</v>
-      </c>
-      <c r="W65" s="0" t="s">
-        <v>456</v>
-      </c>
-      <c r="X65" s="0" t="n">
-        <v>91581</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>520</v>
+      </c>
+      <c r="X65" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="Y65" s="0" t="n">
+        <v>91599</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="55.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>457</v>
-      </c>
-      <c r="B66" s="0" t="s">
-        <v>458</v>
+        <v>522</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>523</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>145</v>
+        <v>34</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>454</v>
-      </c>
-      <c r="W66" s="0" t="s">
-        <v>456</v>
-      </c>
-      <c r="X66" s="0" t="n">
-        <v>91580</v>
+        <v>524</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="X66" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="Y66" s="0" t="n">
+        <v>91582</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>459</v>
+        <v>527</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>460</v>
+        <v>528</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>279</v>
+        <v>529</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>461</v>
-      </c>
-      <c r="W67" s="0" t="s">
-        <v>450</v>
-      </c>
-      <c r="X67" s="0" t="n">
-        <v>91579</v>
+        <v>530</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="F67" s="0" t="s">
+        <v>532</v>
+      </c>
+      <c r="X67" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="Y67" s="0" t="n">
+        <v>91581</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>462</v>
+        <v>534</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>463</v>
+        <v>535</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>45</v>
+        <v>181</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>449</v>
-      </c>
-      <c r="W68" s="0" t="s">
-        <v>450</v>
-      </c>
-      <c r="X68" s="0" t="n">
-        <v>91577</v>
+        <v>536</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="X68" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="Y68" s="0" t="n">
+        <v>91580</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>464</v>
+        <v>537</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>465</v>
+        <v>538</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>449</v>
-      </c>
-      <c r="W69" s="0" t="s">
-        <v>450</v>
-      </c>
-      <c r="X69" s="0" t="n">
-        <v>91576</v>
+        <v>539</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>540</v>
+      </c>
+      <c r="X69" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="Y69" s="0" t="n">
+        <v>91579</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>466</v>
+        <v>541</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>467</v>
+        <v>542</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>445</v>
-      </c>
-      <c r="W70" s="0" t="s">
-        <v>446</v>
-      </c>
-      <c r="X70" s="0" t="n">
-        <v>91574</v>
+        <v>543</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="X70" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="Y70" s="0" t="n">
+        <v>91577</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>468</v>
+        <v>544</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>469</v>
+        <v>545</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>445</v>
-      </c>
-      <c r="W71" s="0" t="s">
-        <v>446</v>
-      </c>
-      <c r="X71" s="0" t="n">
-        <v>91572</v>
+        <v>546</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="X71" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="Y71" s="0" t="n">
+        <v>91576</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>470</v>
+        <v>547</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>471</v>
+        <v>548</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>445</v>
-      </c>
-      <c r="W72" s="0" t="s">
-        <v>446</v>
-      </c>
-      <c r="X72" s="0" t="n">
-        <v>91571</v>
+        <v>549</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="X72" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="Y72" s="0" t="n">
+        <v>91574</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>472</v>
+        <v>550</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>473</v>
+        <v>551</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>445</v>
-      </c>
-      <c r="W73" s="0" t="s">
-        <v>446</v>
-      </c>
-      <c r="X73" s="0" t="n">
-        <v>91570</v>
+        <v>552</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="X73" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="Y73" s="0" t="n">
+        <v>91572</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>474</v>
+        <v>553</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>475</v>
+        <v>554</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>445</v>
-      </c>
-      <c r="W74" s="0" t="s">
-        <v>446</v>
-      </c>
-      <c r="X74" s="0" t="n">
-        <v>91569</v>
+        <v>555</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="X74" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="Y74" s="0" t="n">
+        <v>91571</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>476</v>
+        <v>556</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>477</v>
+        <v>557</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>478</v>
-      </c>
-      <c r="W75" s="0" t="s">
-        <v>479</v>
-      </c>
-      <c r="X75" s="0" t="n">
-        <v>91563</v>
+        <v>558</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="X75" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="Y75" s="0" t="n">
+        <v>91570</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>480</v>
+        <v>559</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>481</v>
+        <v>560</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>310</v>
+        <v>100</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>482</v>
-      </c>
-      <c r="W76" s="0" t="s">
-        <v>483</v>
-      </c>
-      <c r="X76" s="0" t="n">
-        <v>91561</v>
+        <v>561</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="X76" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="Y76" s="0" t="n">
+        <v>91569</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>484</v>
+        <v>562</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>485</v>
+        <v>563</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>279</v>
+        <v>121</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>486</v>
+        <v>564</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>487</v>
-      </c>
-      <c r="F77" s="0" t="s">
-        <v>488</v>
-      </c>
-      <c r="G77" s="0" t="s">
-        <v>489</v>
-      </c>
-      <c r="W77" s="0" t="s">
-        <v>490</v>
-      </c>
-      <c r="X77" s="0" t="n">
-        <v>91559</v>
+        <v>565</v>
+      </c>
+      <c r="X77" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="Y77" s="0" t="n">
+        <v>91563</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>491</v>
+        <v>567</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>492</v>
+        <v>568</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>86</v>
+        <v>368</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>493</v>
-      </c>
-      <c r="W78" s="0" t="s">
-        <v>494</v>
-      </c>
-      <c r="X78" s="0" t="n">
-        <v>91553</v>
+        <v>569</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="X78" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="Y78" s="0" t="n">
+        <v>91561</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>495</v>
+        <v>572</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>496</v>
+        <v>573</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>497</v>
-      </c>
-      <c r="W79" s="0" t="s">
-        <v>498</v>
-      </c>
-      <c r="X79" s="0" t="n">
-        <v>91545</v>
+        <v>574</v>
+      </c>
+      <c r="E79" s="0" t="s">
+        <v>575</v>
+      </c>
+      <c r="F79" s="0" t="s">
+        <v>576</v>
+      </c>
+      <c r="G79" s="0" t="s">
+        <v>577</v>
+      </c>
+      <c r="H79" s="0" t="s">
+        <v>578</v>
+      </c>
+      <c r="X79" s="0" t="s">
+        <v>579</v>
+      </c>
+      <c r="Y79" s="0" t="n">
+        <v>91559</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>499</v>
+        <v>580</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>500</v>
+        <v>581</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>497</v>
-      </c>
-      <c r="W80" s="0" t="s">
-        <v>498</v>
-      </c>
-      <c r="X80" s="0" t="n">
-        <v>91539</v>
+        <v>582</v>
+      </c>
+      <c r="E80" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="X80" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="Y80" s="0" t="n">
+        <v>91553</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>501</v>
+        <v>585</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>502</v>
+        <v>586</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>279</v>
+        <v>63</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="W81" s="0" t="s">
-        <v>504</v>
-      </c>
-      <c r="X81" s="0" t="n">
-        <v>91521</v>
+        <v>587</v>
+      </c>
+      <c r="E81" s="0" t="s">
+        <v>588</v>
+      </c>
+      <c r="X81" s="0" t="s">
+        <v>589</v>
+      </c>
+      <c r="Y81" s="0" t="n">
+        <v>91545</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>505</v>
+        <v>590</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>506</v>
+        <v>591</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="W82" s="0" t="s">
-        <v>504</v>
-      </c>
-      <c r="X82" s="0" t="n">
-        <v>91520</v>
+        <v>592</v>
+      </c>
+      <c r="E82" s="0" t="s">
+        <v>588</v>
+      </c>
+      <c r="X82" s="0" t="s">
+        <v>589</v>
+      </c>
+      <c r="Y82" s="0" t="n">
+        <v>91539</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>507</v>
+        <v>593</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>508</v>
+        <v>594</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="W83" s="0" t="s">
-        <v>504</v>
-      </c>
-      <c r="X83" s="0" t="n">
-        <v>91519</v>
+        <v>595</v>
+      </c>
+      <c r="E83" s="0" t="s">
+        <v>596</v>
+      </c>
+      <c r="X83" s="0" t="s">
+        <v>597</v>
+      </c>
+      <c r="Y83" s="0" t="n">
+        <v>91521</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>509</v>
+        <v>598</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>510</v>
+        <v>599</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="W84" s="0" t="s">
-        <v>504</v>
-      </c>
-      <c r="X84" s="0" t="n">
-        <v>91515</v>
+        <v>600</v>
+      </c>
+      <c r="E84" s="0" t="s">
+        <v>596</v>
+      </c>
+      <c r="X84" s="0" t="s">
+        <v>597</v>
+      </c>
+      <c r="Y84" s="0" t="n">
+        <v>91520</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>511</v>
+        <v>601</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>512</v>
+        <v>602</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>513</v>
-      </c>
-      <c r="W85" s="0" t="s">
-        <v>514</v>
-      </c>
-      <c r="X85" s="0" t="n">
-        <v>91466</v>
+        <v>603</v>
+      </c>
+      <c r="E85" s="0" t="s">
+        <v>596</v>
+      </c>
+      <c r="X85" s="0" t="s">
+        <v>597</v>
+      </c>
+      <c r="Y85" s="0" t="n">
+        <v>91519</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>515</v>
+        <v>604</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>516</v>
+        <v>605</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>517</v>
+        <v>63</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>518</v>
-      </c>
-      <c r="W86" s="0" t="s">
-        <v>519</v>
-      </c>
-      <c r="X86" s="0" t="n">
+        <v>606</v>
+      </c>
+      <c r="E86" s="0" t="s">
+        <v>596</v>
+      </c>
+      <c r="X86" s="0" t="s">
+        <v>597</v>
+      </c>
+      <c r="Y86" s="0" t="n">
+        <v>91515</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>607</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>608</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D87" s="0" t="s">
+        <v>609</v>
+      </c>
+      <c r="E87" s="0" t="s">
+        <v>610</v>
+      </c>
+      <c r="X87" s="0" t="s">
+        <v>611</v>
+      </c>
+      <c r="Y87" s="0" t="n">
+        <v>91466</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>612</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>613</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>614</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>615</v>
+      </c>
+      <c r="E88" s="0" t="s">
+        <v>616</v>
+      </c>
+      <c r="X88" s="0" t="s">
+        <v>617</v>
+      </c>
+      <c r="Y88" s="0" t="n">
         <v>91431</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
-        <v>520</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="C87" s="0" t="s">
-        <v>522</v>
-      </c>
-      <c r="D87" s="0" t="s">
-        <v>523</v>
-      </c>
-      <c r="W87" s="0" t="s">
-        <v>524</v>
-      </c>
-      <c r="X87" s="0" t="n">
+    <row r="89" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>618</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>620</v>
+      </c>
+      <c r="D89" s="0" t="s">
+        <v>621</v>
+      </c>
+      <c r="E89" s="0" t="s">
+        <v>622</v>
+      </c>
+      <c r="X89" s="0" t="s">
+        <v>623</v>
+      </c>
+      <c r="Y89" s="0" t="n">
         <v>91402</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
-        <v>525</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="C88" s="0" t="s">
-        <v>517</v>
-      </c>
-      <c r="D88" s="0" t="s">
-        <v>527</v>
-      </c>
-      <c r="E88" s="0" t="s">
-        <v>528</v>
-      </c>
-      <c r="W88" s="0" t="s">
-        <v>529</v>
-      </c>
-      <c r="X88" s="0" t="n">
+    <row r="90" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>624</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>614</v>
+      </c>
+      <c r="D90" s="0" t="s">
+        <v>626</v>
+      </c>
+      <c r="E90" s="0" t="s">
+        <v>627</v>
+      </c>
+      <c r="F90" s="0" t="s">
+        <v>628</v>
+      </c>
+      <c r="X90" s="0" t="s">
+        <v>629</v>
+      </c>
+      <c r="Y90" s="0" t="n">
         <v>91399</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
-        <v>530</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="C89" s="0" t="s">
-        <v>310</v>
-      </c>
-      <c r="D89" s="0" t="s">
-        <v>532</v>
-      </c>
-      <c r="W89" s="0" t="s">
-        <v>533</v>
-      </c>
-      <c r="X89" s="0" t="n">
+    <row r="91" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>630</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="D91" s="0" t="s">
+        <v>632</v>
+      </c>
+      <c r="E91" s="0" t="s">
+        <v>633</v>
+      </c>
+      <c r="X91" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="Y91" s="0" t="n">
         <v>91398</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
-        <v>534</v>
-      </c>
-      <c r="B90" s="0" t="s">
-        <v>535</v>
-      </c>
-      <c r="C90" s="0" t="s">
-        <v>522</v>
-      </c>
-      <c r="D90" s="0" t="s">
-        <v>536</v>
-      </c>
-      <c r="W90" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="X90" s="0" t="n">
-        <v>91383</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="66.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
-        <v>538</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="C91" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="D91" s="0" t="s">
-        <v>540</v>
-      </c>
-      <c r="W91" s="0" t="s">
-        <v>541</v>
-      </c>
-      <c r="X91" s="0" t="n">
-        <v>91005</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>542</v>
+        <v>635</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>543</v>
+        <v>636</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>453</v>
+        <v>620</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>544</v>
+        <v>637</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>545</v>
-      </c>
-      <c r="W92" s="0" t="s">
-        <v>546</v>
-      </c>
-      <c r="X92" s="0" t="n">
+        <v>638</v>
+      </c>
+      <c r="X92" s="0" t="s">
+        <v>639</v>
+      </c>
+      <c r="Y92" s="0" t="n">
+        <v>91383</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="66.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="D93" s="0" t="s">
+        <v>642</v>
+      </c>
+      <c r="E93" s="0" t="s">
+        <v>643</v>
+      </c>
+      <c r="X93" s="0" t="s">
+        <v>644</v>
+      </c>
+      <c r="Y93" s="0" t="n">
+        <v>91005</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>645</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>646</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="D94" s="0" t="s">
+        <v>647</v>
+      </c>
+      <c r="E94" s="0" t="s">
+        <v>648</v>
+      </c>
+      <c r="F94" s="0" t="s">
+        <v>649</v>
+      </c>
+      <c r="X94" s="0" t="s">
+        <v>650</v>
+      </c>
+      <c r="Y94" s="0" t="n">
         <v>90947</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPágina &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/lib/tasks/init/aportaciones.xlsx
+++ b/lib/tasks/init/aportaciones.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="aportaciones-al-debate-provisionales-para-vistalegre-ii-2017-02-01" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="aportaciones-al-debate-provisionales-para-vistalegre-ii-2017-02-03" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="773">
   <si>
     <t xml:space="preserve">titulo</t>
   </si>
@@ -91,31 +91,620 @@
     <t xml:space="preserve">persona19</t>
   </si>
   <si>
+    <t xml:space="preserve">persona20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">persona21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">persona22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">persona23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">persona24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">persona25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">persona26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">persona27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">persona28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">persona29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">persona30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">persona31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">persona32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">persona33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">persona34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">persona35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">persona36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">persona37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">persona38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">persona39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">persona40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">persona41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">persona42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">persona43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">persona44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">persona45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">persona46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">persona47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">persona48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">persona49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">persona50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">persona51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">persona52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">persona53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">persona54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">persona55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">persona56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">persona57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">persona58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">persona59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">persona60</t>
+  </si>
+  <si>
     <t xml:space="preserve">email</t>
   </si>
   <si>
     <t xml:space="preserve">ID</t>
   </si>
   <si>
-    <t xml:space="preserve">Los Servicios Sociales: el gran reto para el cambio en las Políticas Sociales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En este documento planteamos la necesidad de una LEY GENERAL DEL SISTEMA PÚBLICO DE SERVICIOS SOCIALES que aborde todos estos retos y construya un verdadero Sistema de Protección Social dentro de la Política Social. Un SistemaPúblico de Servicios Sociales generador de riqueza y capital social. Que cuide a las personas y a su comunidad. Que garantice derechos. Que tenga una estructura técnica fuerte que se mantenga en pie cuando soplen con fuerza los vientos de la racionalización económica. Un Sistema del que podamos sentirnos orgullosas y que pueda realmente acogernos si así lo necesitamos. Queremos que los servicios sociales dejen de ser, de una vez por todas, beneficencia pública, bazas partidistas y partidarias, espacio de coqueteo con la sociedad civil y tomadura de pelo para la ciudadanía. Queremos seriedad y prioridad en el abordaje de las necesidades sociales</t>
+    <t xml:space="preserve">ENERGIA_MONTES_POBLACIÓN RURAL_BICICLETAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La energía no es un tema secundario. Es "el tema" no hace falta explayarse. No solo no tenemos energías fósiles sino que en cualquier caso el cénit del petrolero también es un hecho cierto. Se impone la transición a renovables, pero sin olvidar que  ninguna fuente es, ni será de lejos, en lo que  a potencia energética se refiere, como el petróleo. Conclusión: hay que reducir, tampoco esto necesita mucha explicación El crecimiento en producción de materia a base de una energía que se acaba y de recursos minerales finitos es imposible. El tecnoptimismo es engañarse y engañar. Conclusión: gastar menos energía y aprovechar nuestros recursos. Primero en movilidad  con la bicicleta, que permite además evitar contaminación, frenar el cambio climático y disminuir la mortandad por sedentarismo. Hay que obligar a cambiar la movilidad de las ciudades. Y la otra aportación es la biomasa como fuente de energía; MODESTA, pero rural y cuyo uso y gestión es centenaria por parte de los forestales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transición energética</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/02/ENERGÍA_VISTALEGRE-II.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIDON|MARTÍNEZ NAVARRO|635672551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lidon.mn@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apostando #PorLaSostenibilidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(ATENCIÓN: Mensaje para el Equipo Técnico. Este documento que se sube transacciona con los siguientes documentos que pedimos se retiren:
+-&gt; #PorLaSostenibilidad
+-&gt; UNA AGENDA VERDE QUE DÉ COHERENCIA AL NUEVO MODELO PRODUCTIVO, DE CONSUMO Y DE VIDA QUE NECESITAMOS
+-&gt; RECUPERAR LA ILUSIÓN. MEDIO AMBIENTE Y ENERGÍA.
+El aval que enviamos es del documento #PorLaSostenibilidad del principio. Entendemos que disponen de los avales de los otros documentos transaccionados)
+Apostando #PorLaSostenibilidad es un documento que apuesta por la inclusión de la sostenibilidad ambiental como eje temático transversal en el nuevo Podemos nacido de Vistalegre 2. Es tiempo de concebir el pensamiento verde como compañero ineludible de viaje y, por tanto, como coprotagonista en la solución de los principales problemas de España a nivel social, político, económico y, por supuesto, ambiental. Lo urgente es ya, también, lo importante. Por un Podemos que apueste #PorLaSostenibilidad.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medio ambiente y soberanía alimentaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/02/Apostando-PorLaSostenibilidad.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alberto|Rosado del Nogal|605312611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fernando|Prieto|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mari Carmen|Romero|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">José|Errejón|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlos|Chávez Muñoz|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alejandro|Moruno Danzi|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">María|Giménez Casalduero|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jesús|Gil Molina|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jorge|Moruno Danzi|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germán|Cano Cuenca|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlos|Astrain|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guillermo|Paños Nieto|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Álvaro|Gaertner Aranda|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beatriz|Gascó Verdier|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emilio|Franco Gómez|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verónica|Ordoñez|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raquel|García Carillo|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paula|Valero Saez|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sergio|Illanes|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miguel|Ardanuy|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antonio|Urbina|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teresa|Gómez Porres|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maica|Jabois Moldes|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julián|Maganto López|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carmen|Ibáñez|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniel|Vila Garda|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alejandro|Cerezo García|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rubén|Velasco|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">||</t>
+  </si>
+  <si>
+    <t xml:space="preserve">porlasostenibilidad@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los Servicios Sociales: un gran reto para el cambio en las Políticas Sociales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documento avalado por Ana Lima como experta en Servicios Sociales independiente. 
+Entre otros cuenta con el respaldo de Tania González, Ana Marcello, Pilar Lima, Jéssica Albiach y Sofía Castañon. 
+Documento creado por compañeras del Círculo Estatal de Servicios Sociales expertas en la materia y ejerciendo de manera activa en el campo de la docencia y los Servicios Sociales Públicos: Carmen Mesa, Tamara Ruiz, Maria José Aguilar, Helena Herrera, Mar García, Marta Macías e Isabel Marcos.</t>
   </si>
   <si>
     <t xml:space="preserve">Derechos humanos</t>
   </si>
   <si>
-    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/02/servicios-sociales.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carmen|Mesa Raya|634683264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tamara|Ruiz Pascual|634683264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t.r.pascual@hotmail.com</t>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/02/ServiciosSociales-aportación-vistalegre.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMARA|RUIZ PASCUAL|634683264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARIA JOSÉ|AGUILAR|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARMEN|MESA RAYA|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HELENA|HERRERA|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAR|GARCÍA|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARTA|MACÍAS|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISABEL|MARCOS|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TANIA|GONZÁLEZ|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANA|MARCELLO|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PILAR|LIMA|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JÉSSICA|ALBIACH|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">serviciossociales.podemos@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Por una Ley General de la Comunicación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El derecho a la información y la comunicación de la ciudadanía es uno de los pilares en los que se sustenta la democracia. Para que este derecho se cumpla de una manera plena y efectiva es necesario que los profesionales de la información desempeñen su tarea con independencia y en condiciones laborales dignas. Los ciudadanos, a través de sus legítimos representantes y con plenas garantías democráticas, deben establecer los deberes y los derechos de los profesionales a quienes han encomendado que sean el instrumento para que se cumpla ese derecho constitucional y humano. La única manera de garantizar que ese derecho se cumple plenamente es con una ley que regule el derecho a la información y la comunicación de la ciudadanía, los derechos y deberes de los periodistas y las responsabilidades en que incurrirán las empresas y los profesionales que no respeten esas normas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/02/Por-una-ley-general-de-la-comunicacion.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Federación de Sindicatos de Periodistas (FeSP)||609164341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pedrogomez.spc@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No al cierre, si al final: El abandono de los combustibles fósiles para la transición energética en España</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El ministro de energía Nadal manifestó su no intención de hacer un cierre planificado y ordenado de las centrales térmicas de carbón; dejaría esto a la suerte del mercado. Por ello debemos trabajar no por un cierre, sino por un final digno, con memoria y con alternativas. El uso del carbón es incompatible con los objetivos climáticos y el medio ambiente. El programa de Podemos para las generales se vertebraba entorno a la transición energética como motor económico, con medidas como el cierre progresivo de las térmicas de carbón para impulsar las renovables. Sin embargo, los ataques interesados del PSOE han hecho que demos un paso atrás. Debemos retomar el liderazgo en la propuesta de cambio para el país: un país más sostenible y justo. Esta transición justa se debe basar en:  auditoria de lo hecho hasta ahora, asumir el final sin olvidar la historia de la minería, la participación de trabajadores y regiones, nuevas figuras fiscales para subvencionarlo y nuevo plan de industrialización.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/02/No-al-cierre-si-al-final-El-abandono-de-los-combustibles-fósiles-para-la-transición-energética-en-España.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xabier|Benito Ziluaga|650235823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iñaki|Valentín Pérez|620611029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raúl|Camargo Fernández|649730621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irene|De Miguel Pérez|677315820</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paula|Quintero Araujo|617043800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obed|Santos Pascua|655081414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniel|Albarracín Sánchez|+32 484219494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isabel|Serra Sánchez|689031797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laura|Pérez Ruano|689701778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ignacio|González Vegas|659829000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Francisca|Blanco Díaz|633328956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alberto|San Juan Guijarro|687361908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teresa|Rodríguez Rubio|625173182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fernando|Luengo Escalonilla|617148575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miguel|Urbán Crespo|639134449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beatriz|Gimeno Reinoso|690631795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rommy|Arce Legua|638821442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neskutz|Rodríguez Ormazabal|615551813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jaime|Pastor Verdú|677029425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roberto|Herreros Súarez|617026432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J.V.|Barcia Magaz|658654993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniel|Trujillano Aguirre|606218071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andreu|Escobar Tejada|722220837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlos|Aisa Macaya|605530267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bixente|Sacristán Esteban|686117396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Josean|Elgezabal Dueñas|658705608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isidro|Lopez Hernandez|638153491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beatriz|González Marcote|697325673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saioa|Castañeda Díaz|653594438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lidia|Rekagorri Villar|656720462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Igor|Urizar Murgoitio|648191082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fernando|Llorente Arrebola|618940151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">José Manuel|San Juan Martín|679719248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiko|Álvarez Davila|635759172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Francisco|López Peña|699507272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Javier|Nadal Fernández|675719765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miren|Vázquez López|690134289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pilar|Díaz García|677034791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Igor|Sánchez Ceballos|635737442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antonio|Casero Rodríguez|699468847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Víctor|Etayo Quintana|687617387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jesús|Romero Sánchez|609332758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">María|Gómez Garrido|699380467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neus|Pineda Devesa|617221761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sergi|Cremades Fernández|600229946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David|Llorente Sánchez|679336971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miriam|Agudo Yelamos|679709947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jorge|Maestre Martínez|644447227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jorge|Poveda Alonso|687955759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fernando|González Rendo|660068164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">María del Mar|Roldán Meléndez|945145473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniel|Geffner Sclarsky|670427824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rubén|Gutiérrez Berlinches|699560253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Víctor|Alarcón Martínez|645062144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julián|Ríos|652759817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arantxa|Rodríguez Álvarez|636796205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carmen|San José Pérez|666355595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alfonso|Valdenebro Rodríguez|+49 15750446123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domingo|Méndez Rodríguez|676355838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laura|Camargo Fernández|679010589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oficina.xabierbenito@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Por una política exterior feminista.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La política exterior española tiene volver a ser una verdadera política pública y garantizar los derechos de todas las personas así como la no discriminación por género ni identidad u orientación sexual. El reconocimiento y la garantía de los derechos de las mujeres, y la lucha contra todas las formas estructurales de discriminación y violencia contra ellas, debe ser una prioridad absoluta para todas las políticas españolas de exteriores y sus acuerdos internacionales, incluyendo los comerciales y de defensa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Política internacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/02/Aportes-para-el-Debate-Política-Exterior-Feminista.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayra|Moro-Coco|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itziar|Ruíz-Giménez|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David|Perejil|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">José|Medina|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlos|Villota|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cristina|Ramírez|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alberto|Moreno|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jesús|Martínez|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alejandra|Borcel|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jacobo|Mayoral|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iñaki|Olazabal|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rubén|Ruíz|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mayramorococo@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Podemos y la lucha internacional por los Derechos Humanos y la equidad de género.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El texto plantea una agenda profunda en la lucha internacional por la consecución de los derechos humanos y la equidad de género. Lo hace, además, con propuestas concretas en diferentes campos de lucha.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/02/AportacionesaldebateDerechosHumanos.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itziar|Ruiz-Gimenez|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cristina|Ramirez|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">itziar.ruiz-gimenez@uam.es</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Democracia Internacional: la necesidad de construir un orden internacional para todas y todos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El siguiente documento construye una propuesta de política internacional en los campos de la gobernanza de los Derechos Humanos, del multilateralismo democrático, de la gobernanza económica, de la arquitectura de paz y seguridad y de la política exterior española.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/02/AportacionesaldebateDemocraciaInternacional.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rubén|Ruiz|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medina.mateos@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Podemos junto y por los derechos de lo pueblos saharaui, palestino y kurdo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El siguiente documento plantea un posicionamiento de Podemos con los pueblos sin estado desde el marco de la solidaridad internacional. En especial, se plantean propuestas para los pueblos Saharaui, Palestino y Kurdo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/02/AportacionesAlDebatePueblosSinEstado.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ocho puntos para la Justicia Global y el Desarrollo Sostenible.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El documento plantea una agenda de ocho puntos por la Justicia Global y el Desarrollo Sostenible que suponen un programa por la transformación del orden económico internacional y por las políticas de solidaridad internacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/02/AportacionesAlDebateJusticiaGlobal.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cv.villota@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Incorporar la Renta Básica Universal e Incondicional (RBUI) al proyecto político de Podemos: Sí se puede.</t>
@@ -193,9 +782,6 @@
     <t xml:space="preserve">Joan|Botella|609134341</t>
   </si>
   <si>
-    <t xml:space="preserve">pedrogomez.spc@gmail.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">Se debe garantizar la pluralidad informativa</t>
   </si>
   <si>
@@ -351,21 +937,6 @@
   </si>
   <si>
     <t xml:space="preserve">Eduardo|Maura|660011373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recuperar la ilusión. Medio ambiente y energía.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los problemas ambientales más  estructurales  como la pérdida  de biodiversidad  y  de  suelo,  efectos  ambos  de  un  modelo  económico  y  territorial que ha  desvalorizado  el medio rural,  convirtiéndolo  en lugar  de paso para las infraestructuras  o para la instalación  de actividades muy  contaminantes como  centrales  nucleares  y  vertederos  de  residuos  tóxicos,  se  ha  agudizado como consecuencias de  las  políticas del  PP. Es imprescindible una apuesta política por la intervención en estos problemas para el avance del cambio político.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medio ambiente y soberanía alimentaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/Recuperarlailusion_doc_medio_ambiente.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">José|Errejón|659957461</t>
   </si>
   <si>
     <t xml:space="preserve">INTERNACIONALISMO</t>
@@ -378,9 +949,6 @@
 la globalización neoliberal impuesta.</t>
   </si>
   <si>
-    <t xml:space="preserve">Política internacional</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/Internacionalismo.pdf</t>
   </si>
   <si>
@@ -415,27 +983,6 @@
   </si>
   <si>
     <t xml:space="preserve">transparentes.podemos@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VISIBILIZACIÓN DE LAS MUJERES A PARTIR DE 50 AÑOS EN PODEMOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/VISIBILIZACION.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M JOSE|M. AZAÑA|639243920</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARMEN|GARCIA AMALRIC|609101587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARIA ANGELES|GALVAN|637569444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROCIO|BEDMAR HUERTA|637342487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NURIA|MAYORAL DEL BARRIO|679972271</t>
   </si>
   <si>
     <t xml:space="preserve">PODEMOS COMO VERDADERA RED SOCIAL</t>
@@ -584,9 +1131,6 @@
     <t xml:space="preserve">carlos|Taboada|661239640</t>
   </si>
   <si>
-    <t xml:space="preserve">||</t>
-  </si>
-  <si>
     <t xml:space="preserve">podemspoblatsmaritim@gmail.com</t>
   </si>
   <si>
@@ -1246,112 +1790,6 @@
     <t xml:space="preserve">tejiendoexterior@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">#PorLaSostenibilidad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#PorLaSostenibilidad es un documento que apuesta por la inclusión de la sostenibilidad ambiental como eje temático transversal en el nuevo Podemos nacido de Vistalegre 2.  Es tiempo de concebir el pensamiento verde como compañero ineludible de viaje y, por tanto, como coprotagonista en la solución de los principales problemas de España a nivel social, político, económico y, por supuesto, ambiental. 
-Lo urgente es ya, también, lo importante. Por un Podemos que apueste por la Sostenibilidad.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/VA2-Aportacion-al-Debate-Por-la-Sostenibilidad.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alberto|Rosado del Nogal|605312611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fernando|Prieto|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mari Carmen|Romero|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Álvaro|Gaertner Aranda|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alejandro|Moruno Danzi|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jesús|Gil Molina|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jorge|Moruno Danzi|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guillermo|Paños Nieto|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emilio|Franco Gómez|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raquel|García Carillo|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sergio|Illanes|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miguel|Ardanuy|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">José|Errejón Villacieros|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teresa|Gómez Porres|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Julián|Maganto López|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daniel|Vila Garda|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alejandro|Cerezo García|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">porlasostenibilidad@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nueva Visión de la España Exterior Plurinacional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Planteamos cambiar la visión que vienen teniendo los gobiernos sobre las políticas hacia la ciudadanía en el exterior centrada en las corrientes migratorias, en políticas asistencialistas y clientelares e ignorando los derechos. Proponemos ver a los españoles en el exterior como díaspora heterogénea con capas de migraciones, descendencias y retornos. Y considerarlos como un recurso de la futura política exterior de gobierno. Con el desarrollo de un entramado de redes interconectadas a redes en España, de PYMES, emprendimientos culturales y educativos. Y desde ya a Podemos como movimiento social para afrontar problemas. Ya tenemos recursos: Círculos, CRE, centros de la colectividad, cooperación internacional aplicada a proyectos que generen organización y solidaridad, sedes estilo Moradas. Y en lo interno una inserción que prefigure la circunscripción exterior.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/NuevaVisiondelaEspanaExteriorPlurinacional.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soledad|Palomino Roscelli|54-911-5840-7024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jorge|Plano Legaspi|54-911-6201-6877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marcos|Galante Navarro|54-911-3636-8706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Martin|Gonçalves Vedia y Mitre|54-911-5421-3319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enrique|Pous Ojeda|54-911-6262-8932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Francisco Manuel|Rico Lesta|54-911-5606-8934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malena|Weinsinger Calvo|54-911-3882-5233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jerónimo Sebastián|Ibarra|54-911-3650-2947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carolina|Uranga Damiano|54-911-5038-7709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Francisco Mario|Estraviz Barcala|54-911-5707-5728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">podemosbaires@gmail.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">Las pensiones</t>
   </si>
   <si>
@@ -1429,73 +1867,6 @@
   </si>
   <si>
     <t xml:space="preserve">jmartinezgarci@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNA AGENDA VERDE QUE DÉ COHERENCIA AL NUEVO MODELO PRODUCTIVO, DE CONSUMO Y DE VIDA QUE NECESITAMOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La crisis global de insostenibilidad ambiental y sus implicaciones socio-políticas
-El modelo de desarrollo capitalista, desde las capacidades tecnológicas disponibles y bajo el imperio del libre mercado que impone la visión neoliberal está acelerando el agotamiento de recursos, así como el desborde y quiebra de los ciclos de la vida, poniendo en cuestión no sólo la sostenibilidad del modelo de progreso y de vida que hemos construido, sino los principios democráticos en el siglo XXI.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://forms.podemos.info/wp-content/uploads/gravity_forms/272-172358ab30d03729cafb98f852636d0f/2017/01/UNA-AGENDA-VERDE-QUE-DÉ-COHERENCIA-AL-NUEVO-MODELO-PRODUCTIVO-DE-CONSUMO-Y-DE-VIDA-QUE-NECESITAMOS-1.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carlos|Chávez Muñoz|650212181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">María|Giménez Casalduero|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carlos|Astrain|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beatriz|Gascó Verdier|690021802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Irene|de Miguel.|677315820</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veronica|Ordoñez|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paula|Valero|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maria del Carmen|Garcia Bueno|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marco ,|Rizzardini|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Julia|Martinez|699685278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pedro|Arrojo|608079141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antonio|Urbina|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alejandro|Moruno Danzi|670969402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mariadel Carmen|Romero|619989268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paula|Valero Saez|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alberto|Rosado del Nogal|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maica|Jabois Moldes|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carmen|Ibañez|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medioambiente@podemos.info</t>
   </si>
   <si>
     <t xml:space="preserve">La emigración como un sujeto político a recordar</t>
@@ -2106,12 +2477,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2136,25 +2503,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y94"/>
+  <dimension ref="A1:BN98"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="BN1" activeCellId="0" sqref="BN1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="168.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="215.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="213.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="33.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="207.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="5" style="0" width="47.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="178.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="49.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="0" width="47.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="48.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="47.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="16" style="0" width="48.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="35.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="10.02"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="26" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="16" style="0" width="48.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="0" width="35.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="0" width="10.02"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="67" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2173,7 +2541,7 @@
       <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="0" t="s">
@@ -2194,13 +2562,13 @@
       <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="0" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="0" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="0" t="s">
@@ -2233,2779 +2601,3306 @@
       <c r="Y1" s="0" t="s">
         <v>24</v>
       </c>
+      <c r="Z1" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" s="0" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="X2" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y2" s="0" t="n">
-        <v>92466</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>70</v>
+      </c>
+      <c r="BM2" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="BN2" s="0" t="n">
+        <v>92740</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="77.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>72</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>37</v>
+        <v>77</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="S3" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="T3" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="U3" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="V3" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="W3" s="0" t="s">
+        <v>94</v>
       </c>
       <c r="X3" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y3" s="0" t="n">
-        <v>92404</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>95</v>
+      </c>
+      <c r="Y3" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA3" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB3" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC3" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD3" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE3" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF3" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG3" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH3" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="BM3" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="BN3" s="0" t="n">
+        <v>92739</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>40</v>
+        <v>106</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="X4" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y4" s="0" t="n">
-        <v>92391</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="55.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>110</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="BM4" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="BN4" s="0" t="n">
+        <v>92729</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>122</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>123</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="X5" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y5" s="0" t="n">
-        <v>92386</v>
+        <v>125</v>
+      </c>
+      <c r="BM5" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="BN5" s="0" t="n">
+        <v>92699</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>54</v>
+        <v>129</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>55</v>
+        <v>130</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="S6" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="T6" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="U6" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="V6" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="W6" s="0" t="s">
+        <v>148</v>
       </c>
       <c r="X6" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y6" s="0" t="n">
-        <v>92348</v>
+        <v>149</v>
+      </c>
+      <c r="Y6" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z6" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA6" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB6" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC6" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="AD6" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE6" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF6" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG6" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH6" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="AI6" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="AJ6" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="AK6" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="AL6" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="AM6" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="AN6" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="AO6" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="AP6" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="AQ6" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="AR6" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="AS6" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="AT6" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="AU6" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="AV6" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="AW6" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="AX6" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="AY6" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="AZ6" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="BA6" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="BB6" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="BC6" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="BD6" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="BE6" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="BF6" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="BG6" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="BH6" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="BI6" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="BJ6" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="BK6" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="BL6" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="BM6" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="BN6" s="0" t="n">
+        <v>92577</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>57</v>
+        <v>191</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>58</v>
+        <v>192</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>27</v>
+        <v>193</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>59</v>
+        <v>194</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="X7" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y7" s="0" t="n">
-        <v>92342</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="45.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>195</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="BM7" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="BN7" s="0" t="n">
+        <v>92545</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>62</v>
+        <v>208</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>209</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>63</v>
+        <v>193</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>64</v>
+        <v>210</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="X8" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y8" s="0" t="n">
-        <v>92141</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="55.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>211</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="BM8" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="BN8" s="0" t="n">
+        <v>92537</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>68</v>
+        <v>214</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>215</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>69</v>
+        <v>193</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>70</v>
+        <v>216</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>71</v>
+        <v>198</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>72</v>
+        <v>212</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>73</v>
+        <v>201</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>74</v>
+        <v>202</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>75</v>
+        <v>205</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>76</v>
+        <v>203</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>77</v>
+        <v>195</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>79</v>
+        <v>204</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>80</v>
+        <v>217</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>81</v>
+        <v>199</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q9" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="R9" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="S9" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="T9" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="X9" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y9" s="0" t="n">
-        <v>92140</v>
+        <v>196</v>
+      </c>
+      <c r="BM9" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="BN9" s="0" t="n">
+        <v>92532</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>88</v>
+        <v>219</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>89</v>
+        <v>220</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>63</v>
+        <v>193</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>90</v>
+        <v>221</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="X10" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y10" s="0" t="n">
-        <v>92124</v>
+        <v>197</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="BM10" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="BN10" s="0" t="n">
+        <v>92529</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>93</v>
+        <v>222</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>94</v>
+        <v>223</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>63</v>
+        <v>193</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>95</v>
+        <v>224</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>96</v>
+        <v>199</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="X11" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y11" s="0" t="n">
-        <v>92123</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>200</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="O11" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="P11" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="BM11" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="BN11" s="0" t="n">
+        <v>92526</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>99</v>
+        <v>226</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>100</v>
+        <v>228</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>101</v>
+        <v>229</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>102</v>
+        <v>230</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="X12" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y12" s="0" t="n">
-        <v>92122</v>
+        <v>231</v>
+      </c>
+      <c r="BM12" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="BN12" s="0" t="n">
+        <v>92404</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>103</v>
+        <v>233</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>104</v>
+        <v>234</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>63</v>
+        <v>235</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>105</v>
+        <v>236</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="X13" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y13" s="0" t="n">
-        <v>92121</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>237</v>
+      </c>
+      <c r="BM13" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="BN13" s="0" t="n">
+        <v>92391</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="55.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="BM14" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="BN14" s="0" t="n">
+        <v>92386</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="C15" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="X14" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y14" s="0" t="n">
-        <v>92120</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="55.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>115</v>
-      </c>
       <c r="D15" s="0" t="s">
-        <v>116</v>
+        <v>248</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="X15" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y15" s="0" t="n">
-        <v>91955</v>
+        <v>249</v>
+      </c>
+      <c r="BM15" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="BN15" s="0" t="n">
+        <v>92348</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>119</v>
+        <v>250</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>120</v>
+        <v>251</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>122</v>
+        <v>252</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="H16" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="BM16" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="I16" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="X16" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y16" s="0" t="n">
-        <v>91951</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BN16" s="0" t="n">
+        <v>92342</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="45.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>120</v>
+        <v>254</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>255</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>121</v>
+        <v>256</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>129</v>
+        <v>257</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="X17" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y17" s="0" t="n">
-        <v>91949</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>258</v>
+      </c>
+      <c r="BM17" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="BN17" s="0" t="n">
+        <v>92141</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="55.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>136</v>
+        <v>260</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>261</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>63</v>
+        <v>262</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>137</v>
+        <v>263</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="X18" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y18" s="0" t="n">
-        <v>91946</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="120.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>264</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="M18" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="N18" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="O18" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="P18" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q18" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="R18" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="S18" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="T18" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="BM18" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="BN18" s="0" t="n">
+        <v>92140</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>141</v>
+        <v>281</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>282</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>63</v>
+        <v>256</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>142</v>
+        <v>283</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="X19" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y19" s="0" t="n">
-        <v>91929</v>
+        <v>284</v>
+      </c>
+      <c r="BM19" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="BN19" s="0" t="n">
+        <v>92124</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>145</v>
+        <v>286</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>146</v>
+        <v>287</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>63</v>
+        <v>256</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>147</v>
+        <v>288</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="X20" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y20" s="0" t="n">
-        <v>91763</v>
+        <v>289</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="BM20" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="BN20" s="0" t="n">
+        <v>92123</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>150</v>
+        <v>291</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>151</v>
+        <v>292</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>121</v>
+        <v>293</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="X21" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y21" s="0" t="n">
-        <v>91760</v>
+        <v>295</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="BM21" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="BN21" s="0" t="n">
+        <v>92122</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>153</v>
+        <v>296</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>154</v>
+        <v>297</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>27</v>
+        <v>256</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>155</v>
+        <v>298</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="X22" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y22" s="0" t="n">
-        <v>91732</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="77.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>299</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="BM22" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="BN22" s="0" t="n">
+        <v>92121</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="55.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>159</v>
+        <v>301</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>161</v>
+        <v>303</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="H23" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="I23" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="X23" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="Y23" s="0" t="n">
-        <v>91720</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="45.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>304</v>
+      </c>
+      <c r="BM23" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="BN23" s="0" t="n">
+        <v>91955</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>169</v>
+        <v>306</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>307</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>63</v>
+        <v>308</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>170</v>
+        <v>309</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="X24" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="Y24" s="0" t="n">
-        <v>91719</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>310</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="BM24" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="BN24" s="0" t="n">
+        <v>91951</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>174</v>
+        <v>315</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>63</v>
+        <v>256</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>175</v>
+        <v>317</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="X25" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="Y25" s="0" t="n">
-        <v>91717</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>318</v>
+      </c>
+      <c r="BM25" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="BN25" s="0" t="n">
+        <v>91946</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="120.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>180</v>
+        <v>320</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>321</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>181</v>
+        <v>256</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>182</v>
+        <v>322</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="H26" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="I26" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="J26" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="K26" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="L26" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="M26" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="N26" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="X26" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="Y26" s="0" t="n">
-        <v>91716</v>
+        <v>323</v>
+      </c>
+      <c r="BM26" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="BN26" s="0" t="n">
+        <v>91929</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>194</v>
+        <v>325</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>195</v>
+        <v>326</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>196</v>
+        <v>256</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>197</v>
+        <v>327</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="X27" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="Y27" s="0" t="n">
-        <v>91715</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>328</v>
+      </c>
+      <c r="BM27" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="BN27" s="0" t="n">
+        <v>91763</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>201</v>
+        <v>330</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>331</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>63</v>
+        <v>308</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>202</v>
+        <v>332</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="F28" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="X28" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="Y28" s="0" t="n">
-        <v>91714</v>
+        <v>328</v>
+      </c>
+      <c r="BM28" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="BN28" s="0" t="n">
+        <v>91760</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>205</v>
+        <v>333</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>206</v>
+        <v>334</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>208</v>
+        <v>335</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="X29" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="Y29" s="0" t="n">
-        <v>91713</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>336</v>
+      </c>
+      <c r="BM29" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="BN29" s="0" t="n">
+        <v>91732</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="77.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>212</v>
+        <v>338</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>339</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>213</v>
+        <v>340</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>214</v>
+        <v>341</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>215</v>
+        <v>342</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="X30" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="Y30" s="0" t="n">
-        <v>91712</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>343</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="BM30" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="BN30" s="0" t="n">
+        <v>91720</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="45.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>219</v>
+        <v>348</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>349</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>41</v>
+        <v>256</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="X31" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="Y31" s="0" t="n">
-        <v>91711</v>
+        <v>351</v>
+      </c>
+      <c r="BM31" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="BN31" s="0" t="n">
+        <v>91719</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>222</v>
+        <v>353</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>223</v>
+        <v>354</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>63</v>
+        <v>256</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>224</v>
+        <v>355</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>65</v>
+        <v>356</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="G32" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="H32" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="I32" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="J32" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="K32" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="L32" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="M32" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="N32" s="0" t="s">
-        <v>232</v>
-      </c>
-      <c r="X32" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y32" s="0" t="n">
-        <v>91710</v>
+        <v>104</v>
+      </c>
+      <c r="BM32" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="BN32" s="0" t="n">
+        <v>91717</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>233</v>
+        <v>358</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>234</v>
+        <v>359</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>41</v>
+        <v>360</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>235</v>
+        <v>361</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>236</v>
+        <v>362</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="X33" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="Y33" s="0" t="n">
-        <v>91709</v>
+        <v>363</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="K33" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="L33" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="M33" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="N33" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="BM33" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="BN33" s="0" t="n">
+        <v>91716</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>238</v>
+        <v>373</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>239</v>
+        <v>374</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>27</v>
+        <v>375</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>240</v>
+        <v>376</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="F34" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="X34" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="Y34" s="0" t="n">
-        <v>91708</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>377</v>
+      </c>
+      <c r="BM34" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="BN34" s="0" t="n">
+        <v>91715</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>242</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>243</v>
+        <v>379</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>380</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>69</v>
+        <v>256</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>244</v>
+        <v>381</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>245</v>
-      </c>
-      <c r="X35" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="Y35" s="0" t="n">
-        <v>91707</v>
+        <v>258</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="BM35" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="BN35" s="0" t="n">
+        <v>91714</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>247</v>
+        <v>384</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>248</v>
+        <v>385</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>27</v>
+        <v>386</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>249</v>
+        <v>387</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="F36" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="X36" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="Y36" s="0" t="n">
-        <v>91706</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>388</v>
+      </c>
+      <c r="BM36" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="BN36" s="0" t="n">
+        <v>91713</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>251</v>
+        <v>390</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>391</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>27</v>
+        <v>392</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>252</v>
+        <v>393</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>253</v>
+        <v>394</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="G37" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="H37" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="I37" s="0" t="s">
-        <v>257</v>
-      </c>
-      <c r="J37" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="K37" s="0" t="s">
-        <v>259</v>
-      </c>
-      <c r="X37" s="0" t="s">
-        <v>260</v>
-      </c>
-      <c r="Y37" s="0" t="n">
-        <v>91705</v>
+        <v>395</v>
+      </c>
+      <c r="BM37" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="BN37" s="0" t="n">
+        <v>91712</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>261</v>
+        <v>397</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>262</v>
+        <v>398</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>69</v>
+        <v>235</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>263</v>
+        <v>399</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>245</v>
-      </c>
-      <c r="X38" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="Y38" s="0" t="n">
-        <v>91704</v>
+        <v>400</v>
+      </c>
+      <c r="BM38" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="BN38" s="0" t="n">
+        <v>91711</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>264</v>
+        <v>401</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>265</v>
+        <v>402</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>207</v>
+        <v>256</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>266</v>
+        <v>403</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>267</v>
-      </c>
-      <c r="X39" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="Y39" s="0" t="n">
-        <v>91703</v>
+        <v>258</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="I39" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="J39" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="K39" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="L39" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="M39" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="N39" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="BM39" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="BN39" s="0" t="n">
+        <v>91710</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>269</v>
+        <v>412</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>270</v>
+        <v>413</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>69</v>
+        <v>235</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>271</v>
+        <v>414</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>272</v>
+        <v>415</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="G40" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="H40" s="0" t="s">
-        <v>275</v>
-      </c>
-      <c r="I40" s="0" t="s">
-        <v>276</v>
-      </c>
-      <c r="J40" s="0" t="s">
-        <v>277</v>
-      </c>
-      <c r="X40" s="0" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y40" s="0" t="n">
-        <v>91701</v>
+        <v>416</v>
+      </c>
+      <c r="BM40" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="BN40" s="0" t="n">
+        <v>91709</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>279</v>
+        <v>417</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>280</v>
+        <v>418</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>281</v>
+        <v>108</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>282</v>
+        <v>419</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>283</v>
+        <v>420</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="G41" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="H41" s="0" t="s">
-        <v>286</v>
-      </c>
-      <c r="I41" s="0" t="s">
-        <v>287</v>
-      </c>
-      <c r="J41" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="K41" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="L41" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="M41" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="N41" s="0" t="s">
-        <v>292</v>
-      </c>
-      <c r="O41" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="P41" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q41" s="0" t="s">
-        <v>295</v>
-      </c>
-      <c r="X41" s="0" t="s">
-        <v>296</v>
-      </c>
-      <c r="Y41" s="0" t="n">
-        <v>91700</v>
+        <v>415</v>
+      </c>
+      <c r="BM41" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="BN41" s="0" t="n">
+        <v>91708</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>297</v>
+        <v>421</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>298</v>
+        <v>422</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>63</v>
+        <v>262</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>299</v>
+        <v>423</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="F42" s="0" t="s">
-        <v>301</v>
-      </c>
-      <c r="G42" s="0" t="s">
-        <v>302</v>
-      </c>
-      <c r="H42" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="I42" s="0" t="s">
-        <v>304</v>
-      </c>
-      <c r="J42" s="0" t="s">
-        <v>305</v>
-      </c>
-      <c r="K42" s="0" t="s">
-        <v>306</v>
-      </c>
-      <c r="L42" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="M42" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="N42" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="O42" s="0" t="s">
-        <v>310</v>
-      </c>
-      <c r="P42" s="0" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q42" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="R42" s="0" t="s">
-        <v>313</v>
-      </c>
-      <c r="X42" s="0" t="s">
-        <v>314</v>
-      </c>
-      <c r="Y42" s="0" t="n">
-        <v>91696</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="66.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>424</v>
+      </c>
+      <c r="BM42" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="BN42" s="0" t="n">
+        <v>91707</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>316</v>
+        <v>426</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>427</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>317</v>
+        <v>428</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>318</v>
-      </c>
-      <c r="X43" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="Y43" s="0" t="n">
-        <v>91694</v>
+        <v>415</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="BM43" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="BN43" s="0" t="n">
+        <v>91706</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>320</v>
+        <v>429</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>321</v>
+        <v>430</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>322</v>
+        <v>431</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>323</v>
+        <v>432</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>324</v>
+        <v>433</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>325</v>
+        <v>434</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>326</v>
-      </c>
-      <c r="X44" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="Y44" s="0" t="n">
-        <v>91693</v>
+        <v>435</v>
+      </c>
+      <c r="I44" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="J44" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="K44" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="BM44" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="BN44" s="0" t="n">
+        <v>91705</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>328</v>
+        <v>440</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>329</v>
+        <v>441</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>63</v>
+        <v>262</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>330</v>
+        <v>442</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="F45" s="0" t="s">
-        <v>332</v>
-      </c>
-      <c r="G45" s="0" t="s">
-        <v>325</v>
-      </c>
-      <c r="H45" s="0" t="s">
-        <v>326</v>
-      </c>
-      <c r="X45" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="Y45" s="0" t="n">
-        <v>91692</v>
+        <v>424</v>
+      </c>
+      <c r="BM45" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="BN45" s="0" t="n">
+        <v>91704</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>333</v>
+        <v>443</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>334</v>
+        <v>444</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>34</v>
+        <v>386</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>335</v>
+        <v>445</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>336</v>
-      </c>
-      <c r="F46" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="G46" s="0" t="s">
-        <v>338</v>
-      </c>
-      <c r="H46" s="0" t="s">
-        <v>339</v>
-      </c>
-      <c r="I46" s="0" t="s">
-        <v>340</v>
-      </c>
-      <c r="J46" s="0" t="s">
-        <v>341</v>
-      </c>
-      <c r="K46" s="0" t="s">
-        <v>342</v>
-      </c>
-      <c r="L46" s="0" t="s">
-        <v>343</v>
-      </c>
-      <c r="M46" s="0" t="s">
-        <v>344</v>
-      </c>
-      <c r="N46" s="0" t="s">
-        <v>345</v>
-      </c>
-      <c r="O46" s="0" t="s">
-        <v>346</v>
-      </c>
-      <c r="P46" s="0" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q46" s="0" t="s">
-        <v>348</v>
-      </c>
-      <c r="R46" s="0" t="s">
-        <v>349</v>
-      </c>
-      <c r="S46" s="0" t="s">
-        <v>350</v>
-      </c>
-      <c r="T46" s="0" t="s">
-        <v>351</v>
-      </c>
-      <c r="U46" s="0" t="s">
-        <v>352</v>
-      </c>
-      <c r="V46" s="0" t="s">
-        <v>353</v>
-      </c>
-      <c r="W46" s="0" t="s">
-        <v>354</v>
-      </c>
-      <c r="X46" s="0" t="s">
-        <v>355</v>
-      </c>
-      <c r="Y46" s="0" t="n">
-        <v>91691</v>
+        <v>446</v>
+      </c>
+      <c r="BM46" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="BN46" s="0" t="n">
+        <v>91703</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>356</v>
+        <v>448</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>357</v>
+        <v>449</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>115</v>
+        <v>262</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>358</v>
+        <v>450</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>359</v>
+        <v>451</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>360</v>
+        <v>452</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>361</v>
+        <v>453</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>362</v>
-      </c>
-      <c r="X47" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="Y47" s="0" t="n">
-        <v>91690</v>
+        <v>454</v>
+      </c>
+      <c r="I47" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="J47" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="BM47" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="BN47" s="0" t="n">
+        <v>91701</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>363</v>
+        <v>458</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>364</v>
+        <v>459</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>63</v>
+        <v>460</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>365</v>
+        <v>461</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>359</v>
+        <v>462</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>360</v>
+        <v>463</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>361</v>
+        <v>464</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>362</v>
-      </c>
-      <c r="X48" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="Y48" s="0" t="n">
-        <v>91689</v>
+        <v>465</v>
+      </c>
+      <c r="I48" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="J48" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="K48" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="L48" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="M48" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="N48" s="0" t="s">
+        <v>471</v>
+      </c>
+      <c r="O48" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="P48" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="Q48" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="BM48" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="BN48" s="0" t="n">
+        <v>91700</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>366</v>
+        <v>476</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>367</v>
+        <v>477</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>368</v>
+        <v>256</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>369</v>
+        <v>478</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>359</v>
+        <v>479</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>370</v>
+        <v>481</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>362</v>
-      </c>
-      <c r="X49" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="Y49" s="0" t="n">
-        <v>91688</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>482</v>
+      </c>
+      <c r="I49" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="J49" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="K49" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="L49" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="M49" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="N49" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="O49" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="P49" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q49" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="R49" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="BM49" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="BN49" s="0" t="n">
+        <v>91696</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="66.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>371</v>
-      </c>
-      <c r="B50" s="0" t="s">
-        <v>372</v>
+        <v>494</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>495</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>63</v>
+        <v>256</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>373</v>
+        <v>496</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>323</v>
-      </c>
-      <c r="F50" s="0" t="s">
-        <v>325</v>
-      </c>
-      <c r="G50" s="0" t="s">
-        <v>324</v>
-      </c>
-      <c r="H50" s="0" t="s">
-        <v>374</v>
-      </c>
-      <c r="X50" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="Y50" s="0" t="n">
-        <v>91685</v>
+        <v>497</v>
+      </c>
+      <c r="BM50" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="BN50" s="0" t="n">
+        <v>91694</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>375</v>
+        <v>499</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>376</v>
+        <v>500</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>63</v>
+        <v>256</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>377</v>
+        <v>501</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>378</v>
+        <v>502</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>379</v>
+        <v>503</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>380</v>
+        <v>504</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>381</v>
-      </c>
-      <c r="I51" s="0" t="s">
-        <v>382</v>
-      </c>
-      <c r="J51" s="0" t="s">
-        <v>383</v>
-      </c>
-      <c r="K51" s="0" t="s">
-        <v>384</v>
-      </c>
-      <c r="L51" s="0" t="s">
-        <v>385</v>
-      </c>
-      <c r="M51" s="0" t="s">
-        <v>386</v>
-      </c>
-      <c r="N51" s="0" t="s">
-        <v>387</v>
-      </c>
-      <c r="O51" s="0" t="s">
-        <v>388</v>
-      </c>
-      <c r="P51" s="0" t="s">
-        <v>389</v>
-      </c>
-      <c r="Q51" s="0" t="s">
-        <v>390</v>
-      </c>
-      <c r="R51" s="0" t="s">
-        <v>391</v>
-      </c>
-      <c r="S51" s="0" t="s">
-        <v>392</v>
-      </c>
-      <c r="T51" s="0" t="s">
-        <v>393</v>
-      </c>
-      <c r="X51" s="0" t="s">
-        <v>394</v>
-      </c>
-      <c r="Y51" s="0" t="n">
-        <v>91680</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>505</v>
+      </c>
+      <c r="BM51" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="BN51" s="0" t="n">
+        <v>91693</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>395</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>396</v>
+        <v>507</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>508</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>110</v>
+        <v>256</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>397</v>
+        <v>509</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>398</v>
+        <v>510</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>399</v>
+        <v>511</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>400</v>
+        <v>504</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>401</v>
-      </c>
-      <c r="I52" s="0" t="s">
-        <v>402</v>
-      </c>
-      <c r="J52" s="0" t="s">
-        <v>403</v>
-      </c>
-      <c r="K52" s="0" t="s">
-        <v>404</v>
-      </c>
-      <c r="L52" s="0" t="s">
-        <v>405</v>
-      </c>
-      <c r="M52" s="0" t="s">
-        <v>406</v>
-      </c>
-      <c r="N52" s="0" t="s">
-        <v>407</v>
-      </c>
-      <c r="O52" s="0" t="s">
-        <v>408</v>
-      </c>
-      <c r="P52" s="0" t="s">
-        <v>409</v>
-      </c>
-      <c r="Q52" s="0" t="s">
-        <v>410</v>
-      </c>
-      <c r="R52" s="0" t="s">
-        <v>411</v>
-      </c>
-      <c r="S52" s="0" t="s">
-        <v>412</v>
-      </c>
-      <c r="T52" s="0" t="s">
-        <v>413</v>
-      </c>
-      <c r="U52" s="0" t="s">
-        <v>414</v>
-      </c>
-      <c r="X52" s="0" t="s">
-        <v>415</v>
-      </c>
-      <c r="Y52" s="0" t="n">
-        <v>91677</v>
+        <v>505</v>
+      </c>
+      <c r="BM52" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="BN52" s="0" t="n">
+        <v>91692</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>416</v>
+        <v>512</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>417</v>
+        <v>513</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>115</v>
+        <v>228</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>418</v>
+        <v>514</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>419</v>
+        <v>515</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>420</v>
+        <v>516</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>421</v>
+        <v>517</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>422</v>
+        <v>518</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>423</v>
+        <v>519</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>424</v>
+        <v>520</v>
       </c>
       <c r="K53" s="0" t="s">
-        <v>425</v>
+        <v>521</v>
       </c>
       <c r="L53" s="0" t="s">
-        <v>426</v>
+        <v>522</v>
       </c>
       <c r="M53" s="0" t="s">
-        <v>427</v>
+        <v>523</v>
       </c>
       <c r="N53" s="0" t="s">
-        <v>428</v>
-      </c>
-      <c r="X53" s="0" t="s">
-        <v>429</v>
-      </c>
-      <c r="Y53" s="0" t="n">
-        <v>91675</v>
+        <v>524</v>
+      </c>
+      <c r="O53" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="P53" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="Q53" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="R53" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="S53" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="T53" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="U53" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="V53" s="0" t="s">
+        <v>532</v>
+      </c>
+      <c r="W53" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="BM53" s="0" t="s">
+        <v>534</v>
+      </c>
+      <c r="BN53" s="0" t="n">
+        <v>91691</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>430</v>
+        <v>535</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>431</v>
+        <v>536</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>63</v>
+        <v>193</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>432</v>
+        <v>537</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>433</v>
+        <v>538</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>434</v>
-      </c>
-      <c r="X54" s="0" t="s">
-        <v>435</v>
-      </c>
-      <c r="Y54" s="0" t="n">
-        <v>91670</v>
+        <v>539</v>
+      </c>
+      <c r="G54" s="0" t="s">
+        <v>540</v>
+      </c>
+      <c r="H54" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="BM54" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="BN54" s="0" t="n">
+        <v>91690</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>436</v>
+        <v>542</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>437</v>
+        <v>543</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>438</v>
+        <v>256</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>439</v>
+        <v>544</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>433</v>
+        <v>538</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>434</v>
-      </c>
-      <c r="X55" s="0" t="s">
-        <v>435</v>
-      </c>
-      <c r="Y55" s="0" t="n">
-        <v>91669</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>539</v>
+      </c>
+      <c r="G55" s="0" t="s">
+        <v>540</v>
+      </c>
+      <c r="H55" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="BM55" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="BN55" s="0" t="n">
+        <v>91689</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>440</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>441</v>
+        <v>545</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>546</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>69</v>
+        <v>547</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>442</v>
+        <v>548</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>443</v>
+        <v>538</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>444</v>
+        <v>539</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>445</v>
+        <v>549</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>446</v>
-      </c>
-      <c r="I56" s="0" t="s">
-        <v>447</v>
-      </c>
-      <c r="J56" s="0" t="s">
-        <v>448</v>
-      </c>
-      <c r="K56" s="0" t="s">
-        <v>449</v>
-      </c>
-      <c r="L56" s="0" t="s">
-        <v>450</v>
-      </c>
-      <c r="M56" s="0" t="s">
-        <v>451</v>
-      </c>
-      <c r="N56" s="0" t="s">
-        <v>452</v>
-      </c>
-      <c r="O56" s="0" t="s">
-        <v>453</v>
-      </c>
-      <c r="P56" s="0" t="s">
-        <v>454</v>
-      </c>
-      <c r="X56" s="0" t="s">
-        <v>455</v>
-      </c>
-      <c r="Y56" s="0" t="n">
-        <v>91666</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>541</v>
+      </c>
+      <c r="BM56" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="BN56" s="0" t="n">
+        <v>91688</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>456</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>457</v>
+        <v>550</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>551</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>110</v>
+        <v>256</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>458</v>
+        <v>552</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>459</v>
+        <v>502</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>460</v>
+        <v>504</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>461</v>
+        <v>503</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>462</v>
-      </c>
-      <c r="I57" s="0" t="s">
-        <v>463</v>
-      </c>
-      <c r="J57" s="0" t="s">
-        <v>464</v>
-      </c>
-      <c r="K57" s="0" t="s">
-        <v>465</v>
-      </c>
-      <c r="L57" s="0" t="s">
-        <v>466</v>
-      </c>
-      <c r="M57" s="0" t="s">
-        <v>467</v>
-      </c>
-      <c r="N57" s="0" t="s">
-        <v>468</v>
-      </c>
-      <c r="O57" s="0" t="s">
-        <v>469</v>
-      </c>
-      <c r="P57" s="0" t="s">
-        <v>470</v>
-      </c>
-      <c r="Q57" s="0" t="s">
-        <v>471</v>
-      </c>
-      <c r="R57" s="0" t="s">
-        <v>472</v>
-      </c>
-      <c r="S57" s="0" t="s">
-        <v>473</v>
-      </c>
-      <c r="T57" s="0" t="s">
-        <v>399</v>
-      </c>
-      <c r="U57" s="0" t="s">
-        <v>474</v>
-      </c>
-      <c r="V57" s="0" t="s">
-        <v>475</v>
-      </c>
-      <c r="W57" s="0" t="s">
-        <v>476</v>
-      </c>
-      <c r="X57" s="0" t="s">
-        <v>477</v>
-      </c>
-      <c r="Y57" s="0" t="n">
-        <v>91665</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>553</v>
+      </c>
+      <c r="BM57" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="BN57" s="0" t="n">
+        <v>91685</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>478</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>479</v>
+        <v>554</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>555</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>69</v>
+        <v>256</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>480</v>
+        <v>556</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>481</v>
-      </c>
-      <c r="X58" s="0" t="s">
-        <v>482</v>
-      </c>
-      <c r="Y58" s="0" t="n">
-        <v>91664</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="55.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>557</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>558</v>
+      </c>
+      <c r="G58" s="0" t="s">
+        <v>559</v>
+      </c>
+      <c r="H58" s="0" t="s">
+        <v>560</v>
+      </c>
+      <c r="I58" s="0" t="s">
+        <v>561</v>
+      </c>
+      <c r="J58" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="K58" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="L58" s="0" t="s">
+        <v>564</v>
+      </c>
+      <c r="M58" s="0" t="s">
+        <v>565</v>
+      </c>
+      <c r="N58" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="O58" s="0" t="s">
+        <v>567</v>
+      </c>
+      <c r="P58" s="0" t="s">
+        <v>568</v>
+      </c>
+      <c r="Q58" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="R58" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="S58" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="T58" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="BM58" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="BN58" s="0" t="n">
+        <v>91680</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>483</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>484</v>
+        <v>574</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>575</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>121</v>
+        <v>256</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>485</v>
+        <v>576</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>486</v>
+        <v>577</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>487</v>
-      </c>
-      <c r="G59" s="0" t="s">
-        <v>488</v>
-      </c>
-      <c r="X59" s="0" t="s">
-        <v>489</v>
-      </c>
-      <c r="Y59" s="0" t="n">
-        <v>91658</v>
+        <v>578</v>
+      </c>
+      <c r="BM59" s="0" t="s">
+        <v>579</v>
+      </c>
+      <c r="BN59" s="0" t="n">
+        <v>91670</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>490</v>
+        <v>580</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>491</v>
+        <v>581</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>69</v>
+        <v>582</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>492</v>
+        <v>583</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>493</v>
-      </c>
-      <c r="X60" s="0" t="s">
-        <v>494</v>
-      </c>
-      <c r="Y60" s="0" t="n">
+        <v>577</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>578</v>
+      </c>
+      <c r="BM60" s="0" t="s">
+        <v>579</v>
+      </c>
+      <c r="BN60" s="0" t="n">
+        <v>91669</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>586</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>587</v>
+      </c>
+      <c r="F61" s="0" t="s">
+        <v>588</v>
+      </c>
+      <c r="G61" s="0" t="s">
+        <v>589</v>
+      </c>
+      <c r="H61" s="0" t="s">
+        <v>590</v>
+      </c>
+      <c r="I61" s="0" t="s">
+        <v>591</v>
+      </c>
+      <c r="J61" s="0" t="s">
+        <v>592</v>
+      </c>
+      <c r="K61" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="L61" s="0" t="s">
+        <v>594</v>
+      </c>
+      <c r="M61" s="0" t="s">
+        <v>595</v>
+      </c>
+      <c r="N61" s="0" t="s">
+        <v>596</v>
+      </c>
+      <c r="O61" s="0" t="s">
+        <v>597</v>
+      </c>
+      <c r="P61" s="0" t="s">
+        <v>598</v>
+      </c>
+      <c r="BM61" s="0" t="s">
+        <v>599</v>
+      </c>
+      <c r="BN61" s="0" t="n">
+        <v>91666</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>600</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>602</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="BM62" s="0" t="s">
+        <v>604</v>
+      </c>
+      <c r="BN62" s="0" t="n">
+        <v>91664</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="55.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>605</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>607</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>608</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>609</v>
+      </c>
+      <c r="G63" s="0" t="s">
+        <v>610</v>
+      </c>
+      <c r="BM63" s="0" t="s">
+        <v>611</v>
+      </c>
+      <c r="BN63" s="0" t="n">
+        <v>91658</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>612</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>613</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>614</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>615</v>
+      </c>
+      <c r="BM64" s="0" t="s">
+        <v>616</v>
+      </c>
+      <c r="BN64" s="0" t="n">
         <v>91647</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
-        <v>495</v>
-      </c>
-      <c r="B61" s="0" t="s">
-        <v>496</v>
-      </c>
-      <c r="C61" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="D61" s="0" t="s">
-        <v>497</v>
-      </c>
-      <c r="E61" s="0" t="s">
-        <v>493</v>
-      </c>
-      <c r="X61" s="0" t="s">
-        <v>494</v>
-      </c>
-      <c r="Y61" s="0" t="n">
-        <v>91642</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
-        <v>498</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="C62" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="D62" s="0" t="s">
-        <v>500</v>
-      </c>
-      <c r="E62" s="0" t="s">
-        <v>501</v>
-      </c>
-      <c r="F62" s="0" t="s">
-        <v>502</v>
-      </c>
-      <c r="G62" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="X62" s="0" t="s">
-        <v>504</v>
-      </c>
-      <c r="Y62" s="0" t="n">
-        <v>91628</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
-        <v>505</v>
-      </c>
-      <c r="B63" s="0" t="s">
-        <v>506</v>
-      </c>
-      <c r="C63" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="D63" s="0" t="s">
-        <v>507</v>
-      </c>
-      <c r="E63" s="0" t="s">
-        <v>508</v>
-      </c>
-      <c r="X63" s="0" t="s">
-        <v>509</v>
-      </c>
-      <c r="Y63" s="0" t="n">
-        <v>91625</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
-        <v>510</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="C64" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="D64" s="0" t="s">
-        <v>512</v>
-      </c>
-      <c r="E64" s="0" t="s">
-        <v>513</v>
-      </c>
-      <c r="F64" s="0" t="s">
-        <v>514</v>
-      </c>
-      <c r="G64" s="0" t="s">
-        <v>515</v>
-      </c>
-      <c r="X64" s="0" t="s">
-        <v>516</v>
-      </c>
-      <c r="Y64" s="0" t="n">
-        <v>91619</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>517</v>
+        <v>617</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>518</v>
+        <v>618</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>100</v>
+        <v>256</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>519</v>
+        <v>619</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>520</v>
-      </c>
-      <c r="X65" s="0" t="s">
-        <v>521</v>
-      </c>
-      <c r="Y65" s="0" t="n">
-        <v>91599</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="55.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>615</v>
+      </c>
+      <c r="BM65" s="0" t="s">
+        <v>616</v>
+      </c>
+      <c r="BN65" s="0" t="n">
+        <v>91642</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>522</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>523</v>
+        <v>620</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>621</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>34</v>
+        <v>392</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>524</v>
+        <v>622</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>525</v>
-      </c>
-      <c r="X66" s="0" t="s">
-        <v>526</v>
-      </c>
-      <c r="Y66" s="0" t="n">
-        <v>91582</v>
+        <v>623</v>
+      </c>
+      <c r="F66" s="0" t="s">
+        <v>624</v>
+      </c>
+      <c r="G66" s="0" t="s">
+        <v>625</v>
+      </c>
+      <c r="BM66" s="0" t="s">
+        <v>626</v>
+      </c>
+      <c r="BN66" s="0" t="n">
+        <v>91628</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>527</v>
+        <v>627</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>528</v>
+        <v>628</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>529</v>
+        <v>392</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>530</v>
+        <v>629</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>531</v>
-      </c>
-      <c r="F67" s="0" t="s">
-        <v>532</v>
-      </c>
-      <c r="X67" s="0" t="s">
-        <v>533</v>
-      </c>
-      <c r="Y67" s="0" t="n">
-        <v>91581</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>630</v>
+      </c>
+      <c r="BM67" s="0" t="s">
+        <v>631</v>
+      </c>
+      <c r="BN67" s="0" t="n">
+        <v>91625</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>534</v>
-      </c>
-      <c r="B68" s="0" t="s">
-        <v>535</v>
+        <v>632</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>633</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>181</v>
+        <v>256</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>536</v>
+        <v>634</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>531</v>
-      </c>
-      <c r="X68" s="0" t="s">
-        <v>533</v>
-      </c>
-      <c r="Y68" s="0" t="n">
-        <v>91580</v>
+        <v>635</v>
+      </c>
+      <c r="F68" s="0" t="s">
+        <v>636</v>
+      </c>
+      <c r="G68" s="0" t="s">
+        <v>637</v>
+      </c>
+      <c r="BM68" s="0" t="s">
+        <v>638</v>
+      </c>
+      <c r="BN68" s="0" t="n">
+        <v>91619</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>537</v>
+        <v>639</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>538</v>
+        <v>640</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>34</v>
+        <v>293</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>539</v>
+        <v>641</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>540</v>
-      </c>
-      <c r="X69" s="0" t="s">
-        <v>526</v>
-      </c>
-      <c r="Y69" s="0" t="n">
-        <v>91579</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>642</v>
+      </c>
+      <c r="BM69" s="0" t="s">
+        <v>643</v>
+      </c>
+      <c r="BN69" s="0" t="n">
+        <v>91599</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="55.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>541</v>
-      </c>
-      <c r="B70" s="0" t="s">
-        <v>542</v>
+        <v>644</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>645</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>63</v>
+        <v>228</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>543</v>
+        <v>646</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>525</v>
-      </c>
-      <c r="X70" s="0" t="s">
-        <v>526</v>
-      </c>
-      <c r="Y70" s="0" t="n">
-        <v>91577</v>
+        <v>647</v>
+      </c>
+      <c r="BM70" s="0" t="s">
+        <v>648</v>
+      </c>
+      <c r="BN70" s="0" t="n">
+        <v>91582</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>544</v>
+        <v>649</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>545</v>
+        <v>650</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>110</v>
+        <v>651</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>546</v>
+        <v>652</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>525</v>
-      </c>
-      <c r="X71" s="0" t="s">
-        <v>526</v>
-      </c>
-      <c r="Y71" s="0" t="n">
-        <v>91576</v>
+        <v>653</v>
+      </c>
+      <c r="F71" s="0" t="s">
+        <v>654</v>
+      </c>
+      <c r="BM71" s="0" t="s">
+        <v>655</v>
+      </c>
+      <c r="BN71" s="0" t="n">
+        <v>91581</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>547</v>
+        <v>656</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>548</v>
+        <v>657</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>100</v>
+        <v>360</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>549</v>
+        <v>658</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>520</v>
-      </c>
-      <c r="X72" s="0" t="s">
-        <v>521</v>
-      </c>
-      <c r="Y72" s="0" t="n">
-        <v>91574</v>
+        <v>653</v>
+      </c>
+      <c r="BM72" s="0" t="s">
+        <v>655</v>
+      </c>
+      <c r="BN72" s="0" t="n">
+        <v>91580</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>550</v>
+        <v>659</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>551</v>
+        <v>660</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>100</v>
+        <v>228</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>552</v>
+        <v>661</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>520</v>
-      </c>
-      <c r="X73" s="0" t="s">
-        <v>521</v>
-      </c>
-      <c r="Y73" s="0" t="n">
-        <v>91572</v>
+        <v>662</v>
+      </c>
+      <c r="BM73" s="0" t="s">
+        <v>648</v>
+      </c>
+      <c r="BN73" s="0" t="n">
+        <v>91579</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>553</v>
+        <v>663</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>554</v>
+        <v>664</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>100</v>
+        <v>256</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>555</v>
+        <v>665</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>520</v>
-      </c>
-      <c r="X74" s="0" t="s">
-        <v>521</v>
-      </c>
-      <c r="Y74" s="0" t="n">
-        <v>91571</v>
+        <v>647</v>
+      </c>
+      <c r="BM74" s="0" t="s">
+        <v>648</v>
+      </c>
+      <c r="BN74" s="0" t="n">
+        <v>91577</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>556</v>
+        <v>666</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>557</v>
+        <v>667</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>558</v>
+        <v>668</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>520</v>
-      </c>
-      <c r="X75" s="0" t="s">
-        <v>521</v>
-      </c>
-      <c r="Y75" s="0" t="n">
-        <v>91570</v>
+        <v>647</v>
+      </c>
+      <c r="BM75" s="0" t="s">
+        <v>648</v>
+      </c>
+      <c r="BN75" s="0" t="n">
+        <v>91576</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>559</v>
+        <v>669</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>560</v>
+        <v>670</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>100</v>
+        <v>293</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>561</v>
+        <v>671</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>520</v>
-      </c>
-      <c r="X76" s="0" t="s">
-        <v>521</v>
-      </c>
-      <c r="Y76" s="0" t="n">
-        <v>91569</v>
+        <v>642</v>
+      </c>
+      <c r="BM76" s="0" t="s">
+        <v>643</v>
+      </c>
+      <c r="BN76" s="0" t="n">
+        <v>91574</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>562</v>
+        <v>672</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>563</v>
+        <v>673</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>121</v>
+        <v>293</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>564</v>
+        <v>674</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>565</v>
-      </c>
-      <c r="X77" s="0" t="s">
-        <v>566</v>
-      </c>
-      <c r="Y77" s="0" t="n">
-        <v>91563</v>
+        <v>642</v>
+      </c>
+      <c r="BM77" s="0" t="s">
+        <v>643</v>
+      </c>
+      <c r="BN77" s="0" t="n">
+        <v>91572</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>567</v>
+        <v>675</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>568</v>
+        <v>676</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>368</v>
+        <v>293</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>569</v>
+        <v>677</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>570</v>
-      </c>
-      <c r="X78" s="0" t="s">
-        <v>571</v>
-      </c>
-      <c r="Y78" s="0" t="n">
-        <v>91561</v>
+        <v>642</v>
+      </c>
+      <c r="BM78" s="0" t="s">
+        <v>643</v>
+      </c>
+      <c r="BN78" s="0" t="n">
+        <v>91571</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>572</v>
+        <v>678</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>573</v>
+        <v>679</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>34</v>
+        <v>293</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>574</v>
+        <v>680</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>575</v>
-      </c>
-      <c r="F79" s="0" t="s">
-        <v>576</v>
-      </c>
-      <c r="G79" s="0" t="s">
-        <v>577</v>
-      </c>
-      <c r="H79" s="0" t="s">
-        <v>578</v>
-      </c>
-      <c r="X79" s="0" t="s">
-        <v>579</v>
-      </c>
-      <c r="Y79" s="0" t="n">
-        <v>91559</v>
+        <v>642</v>
+      </c>
+      <c r="BM79" s="0" t="s">
+        <v>643</v>
+      </c>
+      <c r="BN79" s="0" t="n">
+        <v>91570</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>580</v>
+        <v>681</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>581</v>
+        <v>682</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>110</v>
+        <v>293</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>582</v>
+        <v>683</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>583</v>
-      </c>
-      <c r="X80" s="0" t="s">
-        <v>584</v>
-      </c>
-      <c r="Y80" s="0" t="n">
-        <v>91553</v>
+        <v>642</v>
+      </c>
+      <c r="BM80" s="0" t="s">
+        <v>643</v>
+      </c>
+      <c r="BN80" s="0" t="n">
+        <v>91569</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>585</v>
+        <v>684</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>586</v>
+        <v>685</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>63</v>
+        <v>308</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>587</v>
+        <v>686</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>588</v>
-      </c>
-      <c r="X81" s="0" t="s">
-        <v>589</v>
-      </c>
-      <c r="Y81" s="0" t="n">
-        <v>91545</v>
+        <v>687</v>
+      </c>
+      <c r="BM81" s="0" t="s">
+        <v>688</v>
+      </c>
+      <c r="BN81" s="0" t="n">
+        <v>91563</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>590</v>
+        <v>689</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>591</v>
+        <v>690</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>63</v>
+        <v>547</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>592</v>
+        <v>691</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>588</v>
-      </c>
-      <c r="X82" s="0" t="s">
-        <v>589</v>
-      </c>
-      <c r="Y82" s="0" t="n">
-        <v>91539</v>
+        <v>692</v>
+      </c>
+      <c r="BM82" s="0" t="s">
+        <v>693</v>
+      </c>
+      <c r="BN82" s="0" t="n">
+        <v>91561</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>593</v>
+        <v>694</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>594</v>
+        <v>695</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>34</v>
+        <v>228</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>595</v>
+        <v>696</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>596</v>
-      </c>
-      <c r="X83" s="0" t="s">
-        <v>597</v>
-      </c>
-      <c r="Y83" s="0" t="n">
-        <v>91521</v>
+        <v>697</v>
+      </c>
+      <c r="F83" s="0" t="s">
+        <v>698</v>
+      </c>
+      <c r="G83" s="0" t="s">
+        <v>699</v>
+      </c>
+      <c r="H83" s="0" t="s">
+        <v>700</v>
+      </c>
+      <c r="BM83" s="0" t="s">
+        <v>701</v>
+      </c>
+      <c r="BN83" s="0" t="n">
+        <v>91559</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>598</v>
+        <v>702</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>599</v>
+        <v>703</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>600</v>
+        <v>704</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>596</v>
-      </c>
-      <c r="X84" s="0" t="s">
-        <v>597</v>
-      </c>
-      <c r="Y84" s="0" t="n">
-        <v>91520</v>
+        <v>705</v>
+      </c>
+      <c r="BM84" s="0" t="s">
+        <v>706</v>
+      </c>
+      <c r="BN84" s="0" t="n">
+        <v>91553</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>601</v>
+        <v>707</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>602</v>
+        <v>708</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>63</v>
+        <v>256</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>603</v>
+        <v>709</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>596</v>
-      </c>
-      <c r="X85" s="0" t="s">
-        <v>597</v>
-      </c>
-      <c r="Y85" s="0" t="n">
-        <v>91519</v>
+        <v>710</v>
+      </c>
+      <c r="BM85" s="0" t="s">
+        <v>711</v>
+      </c>
+      <c r="BN85" s="0" t="n">
+        <v>91545</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>604</v>
+        <v>712</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>605</v>
+        <v>713</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>63</v>
+        <v>256</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>606</v>
+        <v>714</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>596</v>
-      </c>
-      <c r="X86" s="0" t="s">
-        <v>597</v>
-      </c>
-      <c r="Y86" s="0" t="n">
-        <v>91515</v>
+        <v>710</v>
+      </c>
+      <c r="BM86" s="0" t="s">
+        <v>711</v>
+      </c>
+      <c r="BN86" s="0" t="n">
+        <v>91539</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>607</v>
+        <v>715</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>608</v>
+        <v>716</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>27</v>
+        <v>228</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>609</v>
+        <v>717</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>610</v>
-      </c>
-      <c r="X87" s="0" t="s">
-        <v>611</v>
-      </c>
-      <c r="Y87" s="0" t="n">
-        <v>91466</v>
+        <v>718</v>
+      </c>
+      <c r="BM87" s="0" t="s">
+        <v>719</v>
+      </c>
+      <c r="BN87" s="0" t="n">
+        <v>91521</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>612</v>
+        <v>720</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>613</v>
+        <v>721</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>614</v>
+        <v>256</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>615</v>
+        <v>722</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>616</v>
-      </c>
-      <c r="X88" s="0" t="s">
-        <v>617</v>
-      </c>
-      <c r="Y88" s="0" t="n">
-        <v>91431</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>718</v>
+      </c>
+      <c r="BM88" s="0" t="s">
+        <v>719</v>
+      </c>
+      <c r="BN88" s="0" t="n">
+        <v>91520</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>618</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>619</v>
+        <v>723</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>724</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>620</v>
+        <v>256</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>621</v>
+        <v>725</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>622</v>
-      </c>
-      <c r="X89" s="0" t="s">
-        <v>623</v>
-      </c>
-      <c r="Y89" s="0" t="n">
-        <v>91402</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>718</v>
+      </c>
+      <c r="BM89" s="0" t="s">
+        <v>719</v>
+      </c>
+      <c r="BN89" s="0" t="n">
+        <v>91519</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>624</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>625</v>
+        <v>726</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>727</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>614</v>
+        <v>256</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>626</v>
+        <v>728</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>627</v>
-      </c>
-      <c r="F90" s="0" t="s">
-        <v>628</v>
-      </c>
-      <c r="X90" s="0" t="s">
-        <v>629</v>
-      </c>
-      <c r="Y90" s="0" t="n">
-        <v>91399</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>718</v>
+      </c>
+      <c r="BM90" s="0" t="s">
+        <v>719</v>
+      </c>
+      <c r="BN90" s="0" t="n">
+        <v>91515</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>630</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>631</v>
+        <v>729</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>730</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>368</v>
+        <v>108</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>632</v>
+        <v>731</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>633</v>
-      </c>
-      <c r="X91" s="0" t="s">
-        <v>634</v>
-      </c>
-      <c r="Y91" s="0" t="n">
-        <v>91398</v>
+        <v>732</v>
+      </c>
+      <c r="BM91" s="0" t="s">
+        <v>733</v>
+      </c>
+      <c r="BN91" s="0" t="n">
+        <v>91466</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>635</v>
+        <v>734</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>636</v>
+        <v>735</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>620</v>
+        <v>736</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>637</v>
+        <v>737</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>638</v>
-      </c>
-      <c r="X92" s="0" t="s">
-        <v>639</v>
-      </c>
-      <c r="Y92" s="0" t="n">
+        <v>738</v>
+      </c>
+      <c r="BM92" s="0" t="s">
+        <v>739</v>
+      </c>
+      <c r="BN92" s="0" t="n">
+        <v>91431</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>740</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>742</v>
+      </c>
+      <c r="D93" s="0" t="s">
+        <v>743</v>
+      </c>
+      <c r="E93" s="0" t="s">
+        <v>744</v>
+      </c>
+      <c r="BM93" s="0" t="s">
+        <v>745</v>
+      </c>
+      <c r="BN93" s="0" t="n">
+        <v>91402</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>746</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>736</v>
+      </c>
+      <c r="D94" s="0" t="s">
+        <v>748</v>
+      </c>
+      <c r="E94" s="0" t="s">
+        <v>749</v>
+      </c>
+      <c r="F94" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="BM94" s="0" t="s">
+        <v>751</v>
+      </c>
+      <c r="BN94" s="0" t="n">
+        <v>91399</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>752</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="D95" s="0" t="s">
+        <v>754</v>
+      </c>
+      <c r="E95" s="0" t="s">
+        <v>755</v>
+      </c>
+      <c r="BM95" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="BN95" s="0" t="n">
+        <v>91398</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
+        <v>757</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>742</v>
+      </c>
+      <c r="D96" s="0" t="s">
+        <v>759</v>
+      </c>
+      <c r="E96" s="0" t="s">
+        <v>760</v>
+      </c>
+      <c r="BM96" s="0" t="s">
+        <v>761</v>
+      </c>
+      <c r="BN96" s="0" t="n">
         <v>91383</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="66.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
-        <v>640</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="C93" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="D93" s="0" t="s">
-        <v>642</v>
-      </c>
-      <c r="E93" s="0" t="s">
-        <v>643</v>
-      </c>
-      <c r="X93" s="0" t="s">
-        <v>644</v>
-      </c>
-      <c r="Y93" s="0" t="n">
+    <row r="97" customFormat="false" ht="66.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
+        <v>762</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="D97" s="0" t="s">
+        <v>764</v>
+      </c>
+      <c r="E97" s="0" t="s">
+        <v>765</v>
+      </c>
+      <c r="BM97" s="0" t="s">
+        <v>766</v>
+      </c>
+      <c r="BN97" s="0" t="n">
         <v>91005</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
-        <v>645</v>
-      </c>
-      <c r="B94" s="0" t="s">
-        <v>646</v>
-      </c>
-      <c r="C94" s="0" t="s">
-        <v>529</v>
-      </c>
-      <c r="D94" s="0" t="s">
-        <v>647</v>
-      </c>
-      <c r="E94" s="0" t="s">
-        <v>648</v>
-      </c>
-      <c r="F94" s="0" t="s">
-        <v>649</v>
-      </c>
-      <c r="X94" s="0" t="s">
-        <v>650</v>
-      </c>
-      <c r="Y94" s="0" t="n">
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
+        <v>767</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>768</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>651</v>
+      </c>
+      <c r="D98" s="0" t="s">
+        <v>769</v>
+      </c>
+      <c r="E98" s="0" t="s">
+        <v>770</v>
+      </c>
+      <c r="F98" s="0" t="s">
+        <v>771</v>
+      </c>
+      <c r="BM98" s="0" t="s">
+        <v>772</v>
+      </c>
+      <c r="BN98" s="0" t="n">
         <v>90947</v>
       </c>
     </row>
